--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/16_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/16_455-55R22.xlsx
@@ -1490,100 +1490,100 @@
         <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.00846908235109697</v>
+        <v>0.01699135750810407</v>
       </c>
       <c r="CP2">
-        <v>0.3188526872842686</v>
+        <v>0.273217788753145</v>
       </c>
       <c r="CQ2">
-        <v>0.2077865211829298</v>
+        <v>0.1815309634185973</v>
       </c>
       <c r="CR2">
-        <v>0.08742545499143875</v>
+        <v>0.08217105535343394</v>
       </c>
       <c r="CS2">
-        <v>0</v>
+        <v>0.001425284402370682</v>
       </c>
       <c r="CT2">
-        <v>0.09129936990231718</v>
+        <v>0.08536903158924397</v>
       </c>
       <c r="CU2">
-        <v>0</v>
+        <v>0.006662502259798171</v>
       </c>
       <c r="CV2">
-        <v>0.02334904656840799</v>
+        <v>0.0292749964241364</v>
       </c>
       <c r="CW2">
-        <v>0.007103925862645527</v>
+        <v>0.01586439986740576</v>
       </c>
       <c r="CX2">
-        <v>0</v>
+        <v>0.008658808709876571</v>
       </c>
       <c r="CY2">
-        <v>0</v>
+        <v>0.0008718972931110124</v>
       </c>
       <c r="CZ2">
-        <v>0</v>
+        <v>9.370022638820674E-06</v>
       </c>
       <c r="DA2">
-        <v>0.1068098464846829</v>
+        <v>0.09817316814299344</v>
       </c>
       <c r="DB2">
-        <v>0</v>
+        <v>1.724671181660372E-05</v>
       </c>
       <c r="DC2">
-        <v>0.120417380018447</v>
+        <v>0.1094063959939113</v>
       </c>
       <c r="DD2">
-        <v>0</v>
+        <v>0.001177195575132335</v>
       </c>
       <c r="DE2">
-        <v>0.0110851649931781</v>
+        <v>0.01915097389430743</v>
       </c>
       <c r="DF2">
-        <v>0.01193216943766957</v>
+        <v>0.01985018906743961</v>
       </c>
       <c r="DG2">
-        <v>0.003301717500967987</v>
+        <v>0.01272561848888401</v>
       </c>
       <c r="DH2">
-        <v>0</v>
+        <v>0.0005625991977334126</v>
       </c>
       <c r="DI2">
-        <v>0</v>
+        <v>3.950540638777021E-05</v>
       </c>
       <c r="DJ2">
-        <v>0</v>
+        <v>0.005192557114390568</v>
       </c>
       <c r="DK2">
-        <v>0.002167633421949566</v>
+        <v>0.01178941466986698</v>
       </c>
       <c r="DL2">
-        <v>0</v>
+        <v>0.008728035810108996</v>
       </c>
       <c r="DM2">
-        <v>0</v>
+        <v>0.004819792408087289</v>
       </c>
       <c r="DN2">
-        <v>0</v>
+        <v>5.788494490314086E-06</v>
       </c>
       <c r="DO2">
-        <v>0</v>
+        <v>0.0001564744481217328</v>
       </c>
       <c r="DP2">
-        <v>0</v>
+        <v>0.003313085042214204</v>
       </c>
       <c r="DQ2">
-        <v>0</v>
+        <v>6.108020484639838E-06</v>
       </c>
       <c r="DR2">
-        <v>0</v>
+        <v>0.0008590487524312995</v>
       </c>
       <c r="DS2">
-        <v>0</v>
+        <v>0.001946155312595717</v>
       </c>
       <c r="DT2">
-        <v>0</v>
+        <v>3.31918467412392E-05</v>
       </c>
       <c r="DU2">
         <v>0</v>
@@ -1867,100 +1867,100 @@
         <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.3767972457842637</v>
+        <v>0.3174054926966229</v>
       </c>
       <c r="CP3">
-        <v>0.05730741505477022</v>
+        <v>0.05675356403790685</v>
       </c>
       <c r="CQ3">
-        <v>0.1874661622207227</v>
+        <v>0.1629420095453708</v>
       </c>
       <c r="CR3">
-        <v>0</v>
+        <v>0.0008683479679557462</v>
       </c>
       <c r="CS3">
-        <v>0.05028953164038577</v>
+        <v>0.0510281084173488</v>
       </c>
       <c r="CT3">
-        <v>0.01430633411554578</v>
+        <v>0.02167165030179083</v>
       </c>
       <c r="CU3">
-        <v>0.02891949993715875</v>
+        <v>0.03359362555376066</v>
       </c>
       <c r="CV3">
-        <v>0</v>
+        <v>0.001725754093726103</v>
       </c>
       <c r="CW3">
-        <v>0</v>
+        <v>0.0005220354549940151</v>
       </c>
       <c r="CX3">
-        <v>0.02909824278344373</v>
+        <v>0.03373945075111279</v>
       </c>
       <c r="CY3">
-        <v>0</v>
+        <v>0.0004223109646060923</v>
       </c>
       <c r="CZ3">
-        <v>0.07808529692760699</v>
+        <v>0.07370494859757172</v>
       </c>
       <c r="DA3">
-        <v>0.05873596993292772</v>
+        <v>0.05791903332165954</v>
       </c>
       <c r="DB3">
-        <v>0.05597189309646743</v>
+        <v>0.05566399454080313</v>
       </c>
       <c r="DC3">
-        <v>0.0008295373899893587</v>
+        <v>0.01067676808398423</v>
       </c>
       <c r="DD3">
-        <v>0.04386980213841559</v>
+        <v>0.04579064945868619</v>
       </c>
       <c r="DE3">
-        <v>0</v>
+        <v>0.005232042851456229</v>
       </c>
       <c r="DF3">
-        <v>0.01178174454897287</v>
+        <v>0.01961199432433328</v>
       </c>
       <c r="DG3">
-        <v>0</v>
+        <v>3.945760835855236E-05</v>
       </c>
       <c r="DH3">
-        <v>0</v>
+        <v>3.921054517724658E-05</v>
       </c>
       <c r="DI3">
-        <v>0.002336714839298201</v>
+        <v>0.01190638064503595</v>
       </c>
       <c r="DJ3">
-        <v>0</v>
+        <v>1.465468947629224E-05</v>
       </c>
       <c r="DK3">
-        <v>0</v>
+        <v>0.0007371309977138481</v>
       </c>
       <c r="DL3">
-        <v>0</v>
+        <v>0.002763095074059737</v>
       </c>
       <c r="DM3">
-        <v>0</v>
+        <v>0.001875488230263878</v>
       </c>
       <c r="DN3">
-        <v>0</v>
+        <v>0.005971300290296577</v>
       </c>
       <c r="DO3">
-        <v>0.004204609590031098</v>
+        <v>0.01343028006993579</v>
       </c>
       <c r="DP3">
-        <v>0</v>
+        <v>0.005777967098540032</v>
       </c>
       <c r="DQ3">
-        <v>0</v>
+        <v>0.002832806181601591</v>
       </c>
       <c r="DR3">
-        <v>0</v>
+        <v>0.0001232524517809839</v>
       </c>
       <c r="DS3">
-        <v>0</v>
+        <v>0.002646541392433586</v>
       </c>
       <c r="DT3">
-        <v>0</v>
+        <v>0.002570653761636178</v>
       </c>
       <c r="DU3">
         <v>0</v>
@@ -2244,100 +2244,100 @@
         <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.04988328848184409</v>
+        <v>0.04933304196034644</v>
       </c>
       <c r="CP4">
-        <v>0.07000401020138369</v>
+        <v>0.06519825886470414</v>
       </c>
       <c r="CQ4">
-        <v>0.3360009134340134</v>
+        <v>0.274937184957743</v>
       </c>
       <c r="CR4">
-        <v>0.02445535884351198</v>
+        <v>0.02928308427174539</v>
       </c>
       <c r="CS4">
-        <v>0.01402715727631138</v>
+        <v>0.02106043291300545</v>
       </c>
       <c r="CT4">
-        <v>0.03234376884128307</v>
+        <v>0.03550310646526371</v>
       </c>
       <c r="CU4">
-        <v>0</v>
+        <v>0.0005239612799729439</v>
       </c>
       <c r="CV4">
-        <v>0.03421934393457213</v>
+        <v>0.03698200002038628</v>
       </c>
       <c r="CW4">
-        <v>0</v>
+        <v>0.00275179591386885</v>
       </c>
       <c r="CX4">
-        <v>0.02365514701520149</v>
+        <v>0.02865211613836827</v>
       </c>
       <c r="CY4">
-        <v>0.001037573127988074</v>
+        <v>0.01081812784646178</v>
       </c>
       <c r="CZ4">
-        <v>0.01412041767665762</v>
+        <v>0.02113396886766475</v>
       </c>
       <c r="DA4">
-        <v>0.2047407026575661</v>
+        <v>0.1714383272175795</v>
       </c>
       <c r="DB4">
-        <v>0</v>
+        <v>0.007767951074856567</v>
       </c>
       <c r="DC4">
-        <v>0.06830688201614321</v>
+        <v>0.06386007094338363</v>
       </c>
       <c r="DD4">
-        <v>0.1022757003310224</v>
+        <v>0.09064453116614585</v>
       </c>
       <c r="DE4">
-        <v>0</v>
+        <v>0.00912957427787622</v>
       </c>
       <c r="DF4">
-        <v>0.01400824204286441</v>
+        <v>0.0210455182252713</v>
       </c>
       <c r="DG4">
-        <v>0</v>
+        <v>0.003084766032510773</v>
       </c>
       <c r="DH4">
-        <v>0</v>
+        <v>0.0002566955026163376</v>
       </c>
       <c r="DI4">
-        <v>0</v>
+        <v>0.0001387129872851857</v>
       </c>
       <c r="DJ4">
-        <v>0</v>
+        <v>0.001604532093649081</v>
       </c>
       <c r="DK4">
-        <v>0</v>
+        <v>3.663880486976051E-05</v>
       </c>
       <c r="DL4">
-        <v>0</v>
+        <v>0.001638715481688613</v>
       </c>
       <c r="DM4">
-        <v>0</v>
+        <v>0.0009799407702415423</v>
       </c>
       <c r="DN4">
-        <v>0</v>
+        <v>0.008506311344436603</v>
       </c>
       <c r="DO4">
-        <v>0</v>
+        <v>0.009430595817444862</v>
       </c>
       <c r="DP4">
-        <v>0.007657359152643557</v>
+        <v>0.01603783828257422</v>
       </c>
       <c r="DQ4">
-        <v>0.003264134966993256</v>
+        <v>0.0125737749360231</v>
       </c>
       <c r="DR4">
-        <v>0</v>
+        <v>0.00205189950894491</v>
       </c>
       <c r="DS4">
-        <v>0</v>
+        <v>0.0001295885137803504</v>
       </c>
       <c r="DT4">
-        <v>0</v>
+        <v>0.003466937519290601</v>
       </c>
       <c r="DU4">
         <v>0</v>
@@ -2624,100 +2624,100 @@
         <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.4380071043452757</v>
+        <v>0.3668019669958067</v>
       </c>
       <c r="CQ5">
-        <v>0.00645876020859655</v>
+        <v>0.01526132641210515</v>
       </c>
       <c r="CR5">
-        <v>0.2114089636925653</v>
+        <v>0.1822144077978035</v>
       </c>
       <c r="CS5">
-        <v>0</v>
+        <v>8.601074242784302E-05</v>
       </c>
       <c r="CT5">
-        <v>0.04120369649483067</v>
+        <v>0.04356466096327229</v>
       </c>
       <c r="CU5">
-        <v>0.01787193087010551</v>
+        <v>0.02455853118638007</v>
       </c>
       <c r="CV5">
-        <v>0.01388636553372598</v>
+        <v>0.02131187710816327</v>
       </c>
       <c r="CW5">
-        <v>0</v>
+        <v>0.003070754629100855</v>
       </c>
       <c r="CX5">
-        <v>0</v>
+        <v>4.003206260807045E-06</v>
       </c>
       <c r="CY5">
-        <v>0.02817252535933436</v>
+        <v>0.03294942790591329</v>
       </c>
       <c r="CZ5">
-        <v>0</v>
+        <v>0.0002780561853225757</v>
       </c>
       <c r="DA5">
-        <v>0.02358377239963174</v>
+        <v>0.0292114152895949</v>
       </c>
       <c r="DB5">
-        <v>0.07605672664937278</v>
+        <v>0.07195604912007701</v>
       </c>
       <c r="DC5">
-        <v>0.02486100362702198</v>
+        <v>0.03025185187092047</v>
       </c>
       <c r="DD5">
-        <v>0.04444981017371454</v>
+        <v>0.04620895539189587</v>
       </c>
       <c r="DE5">
-        <v>0.01206184682424093</v>
+        <v>0.01982561841987554</v>
       </c>
       <c r="DF5">
-        <v>0</v>
+        <v>0.005428972737261839</v>
       </c>
       <c r="DG5">
-        <v>0.03225606474143606</v>
+        <v>0.03627589195041012</v>
       </c>
       <c r="DH5">
-        <v>0</v>
+        <v>0.0001684440680557539</v>
       </c>
       <c r="DI5">
-        <v>0</v>
+        <v>4.705209425961532E-05</v>
       </c>
       <c r="DJ5">
-        <v>0.02795287080593106</v>
+        <v>0.03277049661476213</v>
       </c>
       <c r="DK5">
-        <v>0</v>
+        <v>0.002183627540016213</v>
       </c>
       <c r="DL5">
-        <v>0</v>
+        <v>0.003132824347854601</v>
       </c>
       <c r="DM5">
-        <v>0.0007109193021792769</v>
+        <v>0.01057911710307077</v>
       </c>
       <c r="DN5">
-        <v>0</v>
+        <v>0.001385248006939031</v>
       </c>
       <c r="DO5">
-        <v>0</v>
+        <v>0.005265978887532566</v>
       </c>
       <c r="DP5">
-        <v>0.001057638972037749</v>
+        <v>0.01086155603836283</v>
       </c>
       <c r="DQ5">
-        <v>0</v>
+        <v>5.578123066277991E-08</v>
       </c>
       <c r="DR5">
-        <v>0</v>
+        <v>0.001883246784576688</v>
       </c>
       <c r="DS5">
-        <v>0</v>
+        <v>0.00186715955633495</v>
       </c>
       <c r="DT5">
-        <v>0</v>
+        <v>0.0004411252792022566</v>
       </c>
       <c r="DU5">
-        <v>0</v>
+        <v>0.000154289985209803</v>
       </c>
     </row>
     <row r="6" spans="1:125">
@@ -2998,100 +2998,100 @@
         <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.23857682384639</v>
+        <v>0.204629620905071</v>
       </c>
       <c r="CP6">
-        <v>0.1183177961080697</v>
+        <v>0.1065229875709301</v>
       </c>
       <c r="CQ6">
-        <v>0.08334951731064449</v>
+        <v>0.0779960638894089</v>
       </c>
       <c r="CR6">
-        <v>0</v>
+        <v>0.003032625621900035</v>
       </c>
       <c r="CS6">
-        <v>0.09449887568067798</v>
+        <v>0.08709164726548557</v>
       </c>
       <c r="CT6">
-        <v>0</v>
+        <v>0.002337541603286713</v>
       </c>
       <c r="CU6">
-        <v>0</v>
+        <v>0.0001826448752803689</v>
       </c>
       <c r="CV6">
-        <v>0.03542897972147265</v>
+        <v>0.03890276088461729</v>
       </c>
       <c r="CW6">
-        <v>0</v>
+        <v>0.001548994491077203</v>
       </c>
       <c r="CX6">
-        <v>0.0197009116047755</v>
+        <v>0.02607189204426064</v>
       </c>
       <c r="CY6">
-        <v>0.04573362731079309</v>
+        <v>0.04730923399267203</v>
       </c>
       <c r="CZ6">
-        <v>0.02666005970610753</v>
+        <v>0.0317491256285948</v>
       </c>
       <c r="DA6">
-        <v>0.04327400050540442</v>
+        <v>0.04530268438327253</v>
       </c>
       <c r="DB6">
-        <v>0.07869728635107162</v>
+        <v>0.07420080023627429</v>
       </c>
       <c r="DC6">
-        <v>0</v>
+        <v>0.002394022669011116</v>
       </c>
       <c r="DD6">
-        <v>0.1696427746041301</v>
+        <v>0.1483936141749665</v>
       </c>
       <c r="DE6">
-        <v>0.01757004225717736</v>
+        <v>0.02433354090589404</v>
       </c>
       <c r="DF6">
-        <v>0.02818718048113442</v>
+        <v>0.03299494210283503</v>
       </c>
       <c r="DG6">
-        <v>0</v>
+        <v>0.0008449647251586037</v>
       </c>
       <c r="DH6">
-        <v>0</v>
+        <v>6.975573421540861E-06</v>
       </c>
       <c r="DI6">
-        <v>0</v>
+        <v>0.00261048371628067</v>
       </c>
       <c r="DJ6">
-        <v>0</v>
+        <v>0.0003746561678860494</v>
       </c>
       <c r="DK6">
-        <v>0</v>
+        <v>1.469173306567218E-06</v>
       </c>
       <c r="DL6">
-        <v>0</v>
+        <v>0.0007717283195859649</v>
       </c>
       <c r="DM6">
-        <v>0</v>
+        <v>0.0007884362886553916</v>
       </c>
       <c r="DN6">
-        <v>0</v>
+        <v>0.003513454124192494</v>
       </c>
       <c r="DO6">
-        <v>0</v>
+        <v>0.009850447129519803</v>
       </c>
       <c r="DP6">
-        <v>0</v>
+        <v>0.009745950254705309</v>
       </c>
       <c r="DQ6">
-        <v>0.0003621245121511873</v>
+        <v>0.01029541912489287</v>
       </c>
       <c r="DR6">
-        <v>0</v>
+        <v>0.003389419045846826</v>
       </c>
       <c r="DS6">
-        <v>0</v>
+        <v>0.0007048160989665559</v>
       </c>
       <c r="DT6">
-        <v>0</v>
+        <v>0.002107037012743514</v>
       </c>
       <c r="DU6">
         <v>0</v>
@@ -3372,100 +3372,100 @@
         <v>0</v>
       </c>
       <c r="CN7">
-        <v>0.2196355719532953</v>
+        <v>0.1892514190510882</v>
       </c>
       <c r="CO7">
-        <v>0</v>
+        <v>0.00137954044082134</v>
       </c>
       <c r="CP7">
-        <v>0.2175062493164483</v>
+        <v>0.1875136126435105</v>
       </c>
       <c r="CQ7">
-        <v>0</v>
+        <v>0.005260724469900288</v>
       </c>
       <c r="CR7">
-        <v>0.006898975754138933</v>
+        <v>0.01563046861184865</v>
       </c>
       <c r="CS7">
-        <v>0.06426776745898022</v>
+        <v>0.06245092319889448</v>
       </c>
       <c r="CT7">
-        <v>0.05335754072098193</v>
+        <v>0.05354674794366221</v>
       </c>
       <c r="CU7">
-        <v>0</v>
+        <v>7.064611346563042E-06</v>
       </c>
       <c r="CV7">
-        <v>0.01125167663143978</v>
+        <v>0.0191828431294291</v>
       </c>
       <c r="CW7">
-        <v>0</v>
+        <v>0.000446092148142172</v>
       </c>
       <c r="CX7">
-        <v>0.02114328453717861</v>
+        <v>0.02725569188535689</v>
       </c>
       <c r="CY7">
-        <v>0.05204687645971066</v>
+        <v>0.0524770740896365</v>
       </c>
       <c r="CZ7">
-        <v>0.0368982563707709</v>
+        <v>0.04011381424306804</v>
       </c>
       <c r="DA7">
-        <v>0</v>
+        <v>0.005349357127219504</v>
       </c>
       <c r="DB7">
-        <v>0.1248933419868241</v>
+        <v>0.1119293395057684</v>
       </c>
       <c r="DC7">
-        <v>0.06003522192767854</v>
+        <v>0.05899661119498329</v>
       </c>
       <c r="DD7">
-        <v>0.06275205457833866</v>
+        <v>0.06121390279134962</v>
       </c>
       <c r="DE7">
-        <v>0.06931318230421422</v>
+        <v>0.06656864312316038</v>
       </c>
       <c r="DF7">
-        <v>0</v>
+        <v>0.008220902866930059</v>
       </c>
       <c r="DG7">
-        <v>0</v>
+        <v>0.004265059060568289</v>
       </c>
       <c r="DH7">
-        <v>0</v>
+        <v>3.211814781664834E-05</v>
       </c>
       <c r="DI7">
-        <v>0</v>
+        <v>0.002122195028845911</v>
       </c>
       <c r="DJ7">
-        <v>0</v>
+        <v>2.848347767876454E-06</v>
       </c>
       <c r="DK7">
-        <v>0</v>
+        <v>0.003753039896869789</v>
       </c>
       <c r="DL7">
-        <v>0</v>
+        <v>0.001546793209572283</v>
       </c>
       <c r="DM7">
-        <v>0</v>
+        <v>0.000723229837509897</v>
       </c>
       <c r="DN7">
-        <v>0</v>
+        <v>0.0004372862676360832</v>
       </c>
       <c r="DO7">
-        <v>0</v>
+        <v>0.009730797444797845</v>
       </c>
       <c r="DP7">
-        <v>0</v>
+        <v>0.004936678571535626</v>
       </c>
       <c r="DQ7">
-        <v>0</v>
+        <v>0.004576091551651758</v>
       </c>
       <c r="DR7">
-        <v>0</v>
+        <v>0.001018426723669731</v>
       </c>
       <c r="DS7">
-        <v>0</v>
+        <v>6.066283564178972E-05</v>
       </c>
       <c r="DT7">
         <v>0</v>
@@ -3479,25 +3479,25 @@
         <v>131</v>
       </c>
       <c r="B8">
-        <v>0.1215229536578553</v>
+        <v>0.1114107512938481</v>
       </c>
       <c r="C8">
-        <v>0.21200484227098</v>
+        <v>0.1887832607847815</v>
       </c>
       <c r="D8">
-        <v>0.176459890483466</v>
+        <v>0.1583882042526031</v>
       </c>
       <c r="E8">
-        <v>0.1406482397619001</v>
+        <v>0.1277650891981895</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.006503992083922611</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.002865189749617253</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.003404260144740056</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -3506,73 +3506,73 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.002415930663906239</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.05492029517652754</v>
+        <v>0.05445775324689486</v>
       </c>
       <c r="N8">
-        <v>0.04736252346441123</v>
+        <v>0.04799498182944231</v>
       </c>
       <c r="O8">
-        <v>0.01919178536067294</v>
+        <v>0.02390573331013227</v>
       </c>
       <c r="P8">
-        <v>0.0008521123644523043</v>
+        <v>0.008223185733921883</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.00702579950211321</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.0005413314353652289</v>
       </c>
       <c r="T8">
-        <v>0.04340876624378364</v>
+        <v>0.04461406082119668</v>
       </c>
       <c r="U8">
-        <v>0.04027445570934136</v>
+        <v>0.04193386177483757</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.005902990027384634</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>0.0008069170279418653</v>
       </c>
       <c r="X8">
-        <v>0.04719451261016579</v>
+        <v>0.04785131306198027</v>
       </c>
       <c r="Y8">
-        <v>0.05999484282474914</v>
+        <v>0.05879708006790096</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.005657363302468636</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>0.004255589747039342</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>0.0004029542939965949</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>0.0001782633819295092</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.03348829541101149</v>
+        <v>0.03613090761309871</v>
       </c>
       <c r="AG8">
-        <v>0.002676484660683208</v>
+        <v>0.009783235650747407</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -3856,13 +3856,13 @@
         <v>132</v>
       </c>
       <c r="B9">
-        <v>0.1114823607994828</v>
+        <v>0.09945898213138241</v>
       </c>
       <c r="C9">
-        <v>0.05866584440603417</v>
+        <v>0.05705999953120419</v>
       </c>
       <c r="D9">
-        <v>0.01914836712403654</v>
+        <v>0.02533695253581043</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3874,82 +3874,82 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.01496037296707982</v>
+        <v>0.0219749986714605</v>
       </c>
       <c r="I9">
-        <v>0.07332372730753886</v>
+        <v>0.06882676047141334</v>
       </c>
       <c r="J9">
-        <v>0.04348031552988332</v>
+        <v>0.04486966554934605</v>
       </c>
       <c r="K9">
-        <v>0.005995181323809322</v>
+        <v>0.01477810212382225</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.006599716336239172</v>
       </c>
       <c r="M9">
-        <v>0.01772982278936244</v>
+        <v>0.02419820199582046</v>
       </c>
       <c r="N9">
-        <v>0.1626177172368014</v>
+        <v>0.140508396895676</v>
       </c>
       <c r="O9">
-        <v>0.1603443256522078</v>
+        <v>0.1386834092436972</v>
       </c>
       <c r="P9">
-        <v>0.1613315760550853</v>
+        <v>0.1394759343004769</v>
       </c>
       <c r="Q9">
-        <v>0.06629977936121825</v>
+        <v>0.06318821656325159</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.002643507979673432</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.001777742491830552</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.0007258241021077313</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>0.002467132729385448</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>0.001285062008165668</v>
       </c>
       <c r="X9">
-        <v>0.01077197464641256</v>
+        <v>0.01861272036068167</v>
       </c>
       <c r="Y9">
-        <v>0.03925960461343019</v>
+        <v>0.04148144798168239</v>
       </c>
       <c r="Z9">
-        <v>0.03054774307680192</v>
+        <v>0.03448791469078778</v>
       </c>
       <c r="AA9">
-        <v>0.01346297277801123</v>
+        <v>0.02077294581191791</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.004234141569412787</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>6.068729896860756E-05</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>7.155898744542288E-05</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>0.002304417320296153</v>
       </c>
       <c r="AF9">
-        <v>0.01057831433280406</v>
+        <v>0.01845725762236199</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>0.005658302695682046</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -4506,100 +4506,100 @@
         <v>0</v>
       </c>
       <c r="CO10">
-        <v>0.06725723290084042</v>
+        <v>0.06313791292274543</v>
       </c>
       <c r="CP10">
-        <v>0.2549146403216088</v>
+        <v>0.2114003754824912</v>
       </c>
       <c r="CQ10">
-        <v>0.2436142216029799</v>
+        <v>0.2024722551902636</v>
       </c>
       <c r="CR10">
-        <v>0.04120134248324288</v>
+        <v>0.04255193909631413</v>
       </c>
       <c r="CS10">
-        <v>0</v>
+        <v>0.0003263795427341466</v>
       </c>
       <c r="CT10">
-        <v>0</v>
+        <v>0.007233376723920487</v>
       </c>
       <c r="CU10">
-        <v>0.04116938464640561</v>
+        <v>0.04252669017247628</v>
       </c>
       <c r="CV10">
-        <v>0</v>
+        <v>0.009679082487076305</v>
       </c>
       <c r="CW10">
-        <v>0</v>
+        <v>0.0006629190410694133</v>
       </c>
       <c r="CX10">
-        <v>0.07272003373897526</v>
+        <v>0.0674539072438184</v>
       </c>
       <c r="CY10">
-        <v>0.01829315227331896</v>
+        <v>0.02445286834823083</v>
       </c>
       <c r="CZ10">
-        <v>0.01166042709739422</v>
+        <v>0.01921255206346161</v>
       </c>
       <c r="DA10">
-        <v>0.08902488728980973</v>
+        <v>0.08033588068866306</v>
       </c>
       <c r="DB10">
-        <v>0</v>
+        <v>0.001768906014330577</v>
       </c>
       <c r="DC10">
-        <v>0.03898734954242097</v>
+        <v>0.04080272999229972</v>
       </c>
       <c r="DD10">
-        <v>0</v>
+        <v>0.0003395744103539953</v>
       </c>
       <c r="DE10">
-        <v>0</v>
+        <v>0.00824057263239982</v>
       </c>
       <c r="DF10">
-        <v>0.02248842873470457</v>
+        <v>0.02776742985599643</v>
       </c>
       <c r="DG10">
-        <v>0.002265853524928497</v>
+        <v>0.0117901825887018</v>
       </c>
       <c r="DH10">
-        <v>0</v>
+        <v>1.839702018049925E-05</v>
       </c>
       <c r="DI10">
-        <v>0.01406114784314024</v>
+        <v>0.02110928917911666</v>
       </c>
       <c r="DJ10">
-        <v>0.05478880745111629</v>
+        <v>0.05328698571008419</v>
       </c>
       <c r="DK10">
-        <v>0</v>
+        <v>0.0001688855225964309</v>
       </c>
       <c r="DL10">
-        <v>0</v>
+        <v>0.006313043205966085</v>
       </c>
       <c r="DM10">
-        <v>0</v>
+        <v>0.0003768447172348613</v>
       </c>
       <c r="DN10">
-        <v>0.006763229130816767</v>
+        <v>0.01534342352680147</v>
       </c>
       <c r="DO10">
-        <v>0.0162658700768634</v>
+        <v>0.02285117377682449</v>
       </c>
       <c r="DP10">
-        <v>0.004523991341433667</v>
+        <v>0.01357426922869068</v>
       </c>
       <c r="DQ10">
-        <v>0</v>
+        <v>0.0005084686296222498</v>
       </c>
       <c r="DR10">
-        <v>0</v>
+        <v>0.001129770834089307</v>
       </c>
       <c r="DS10">
-        <v>0</v>
+        <v>0.0004870516060418026</v>
       </c>
       <c r="DT10">
-        <v>0</v>
+        <v>0.002676862545404309</v>
       </c>
       <c r="DU10">
         <v>0</v>
@@ -4613,28 +4613,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03584585377178551</v>
+        <v>0.03623550308946289</v>
       </c>
       <c r="D11">
-        <v>0.07728796326787776</v>
+        <v>0.07121026233497611</v>
       </c>
       <c r="E11">
-        <v>0.07931531148872741</v>
+        <v>0.07292122774656362</v>
       </c>
       <c r="F11">
-        <v>0.07173800934652659</v>
+        <v>0.06652642011306285</v>
       </c>
       <c r="G11">
-        <v>0.06278436430845714</v>
+        <v>0.05897005815697586</v>
       </c>
       <c r="H11">
-        <v>0.0341217085396544</v>
+        <v>0.03478042357900093</v>
       </c>
       <c r="I11">
-        <v>0.04839285338636124</v>
+        <v>0.04682444984215443</v>
       </c>
       <c r="J11">
-        <v>0.02050298932514442</v>
+        <v>0.02328700706253126</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -4646,37 +4646,37 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.007751198986701445</v>
+        <v>0.01252522870570415</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.004343187536581549</v>
       </c>
       <c r="P11">
-        <v>0.01713143513976089</v>
+        <v>0.0204416090518892</v>
       </c>
       <c r="Q11">
-        <v>0.056190969358984</v>
+        <v>0.05340561166107173</v>
       </c>
       <c r="R11">
-        <v>0.06556614797097948</v>
+        <v>0.06131772373319357</v>
       </c>
       <c r="S11">
-        <v>0.06532626063367503</v>
+        <v>0.06111527260388845</v>
       </c>
       <c r="T11">
-        <v>0.07690036965001557</v>
+        <v>0.0708831555917466</v>
       </c>
       <c r="U11">
-        <v>0.04434058932707947</v>
+        <v>0.04340457180998067</v>
       </c>
       <c r="V11">
-        <v>0.04082014952420849</v>
+        <v>0.04043352289280755</v>
       </c>
       <c r="W11">
-        <v>0.02034076189165063</v>
+        <v>0.0231500964298812</v>
       </c>
       <c r="X11">
-        <v>2.677739746317783E-05</v>
+        <v>0.006006260712052006</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -4685,28 +4685,28 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>0.00212271700595343</v>
       </c>
       <c r="AB11">
-        <v>0.003282425442212029</v>
+        <v>0.008753840599701156</v>
       </c>
       <c r="AC11">
-        <v>0.02744648971982644</v>
+        <v>0.0291469224379305</v>
       </c>
       <c r="AD11">
-        <v>0.04814658175394688</v>
+        <v>0.0466166107346036</v>
       </c>
       <c r="AE11">
-        <v>0.03468302755908621</v>
+        <v>0.03525414457928944</v>
       </c>
       <c r="AF11">
-        <v>0.02735653296056787</v>
+        <v>0.02907100410182668</v>
       </c>
       <c r="AG11">
-        <v>0.02715620443941065</v>
+        <v>0.02890193834039038</v>
       </c>
       <c r="AH11">
-        <v>0.007545024809897419</v>
+        <v>0.01235122954678</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -5650,97 +5650,97 @@
         <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.00846908235109697</v>
+        <v>0.01699135750810407</v>
       </c>
       <c r="CP2">
-        <v>0.3273217696353655</v>
+        <v>0.2902091462612491</v>
       </c>
       <c r="CQ2">
-        <v>0.5351082908182954</v>
+        <v>0.4717401096798464</v>
       </c>
       <c r="CR2">
-        <v>0.6225337458097341</v>
+        <v>0.5539111650332803</v>
       </c>
       <c r="CS2">
-        <v>0.6225337458097341</v>
+        <v>0.555336449435651</v>
       </c>
       <c r="CT2">
-        <v>0.7138331157120512</v>
+        <v>0.6407054810248949</v>
       </c>
       <c r="CU2">
-        <v>0.7138331157120512</v>
+        <v>0.647367983284693</v>
       </c>
       <c r="CV2">
-        <v>0.7371821622804592</v>
+        <v>0.6766429797088295</v>
       </c>
       <c r="CW2">
-        <v>0.7442860881431047</v>
+        <v>0.6925073795762352</v>
       </c>
       <c r="CX2">
-        <v>0.7442860881431047</v>
+        <v>0.7011661882861118</v>
       </c>
       <c r="CY2">
-        <v>0.7442860881431047</v>
+        <v>0.7020380855792228</v>
       </c>
       <c r="CZ2">
-        <v>0.7442860881431047</v>
+        <v>0.7020474556018615</v>
       </c>
       <c r="DA2">
-        <v>0.8510959346277877</v>
+        <v>0.800220623744855</v>
       </c>
       <c r="DB2">
-        <v>0.8510959346277877</v>
+        <v>0.8002378704566716</v>
       </c>
       <c r="DC2">
-        <v>0.9715133146462347</v>
+        <v>0.9096442664505829</v>
       </c>
       <c r="DD2">
-        <v>0.9715133146462347</v>
+        <v>0.9108214620257152</v>
       </c>
       <c r="DE2">
-        <v>0.9825984796394128</v>
+        <v>0.9299724359200227</v>
       </c>
       <c r="DF2">
-        <v>0.9945306490770824</v>
+        <v>0.9498226249874623</v>
       </c>
       <c r="DG2">
-        <v>0.9978323665780504</v>
+        <v>0.9625482434763463</v>
       </c>
       <c r="DH2">
-        <v>0.9978323665780504</v>
+        <v>0.9631108426740796</v>
       </c>
       <c r="DI2">
-        <v>0.9978323665780504</v>
+        <v>0.9631503480804674</v>
       </c>
       <c r="DJ2">
-        <v>0.9978323665780504</v>
+        <v>0.968342905194858</v>
       </c>
       <c r="DK2">
-        <v>1</v>
+        <v>0.9801323198647249</v>
       </c>
       <c r="DL2">
-        <v>1</v>
+        <v>0.9888603556748339</v>
       </c>
       <c r="DM2">
-        <v>1</v>
+        <v>0.9936801480829212</v>
       </c>
       <c r="DN2">
-        <v>1</v>
+        <v>0.9936859365774114</v>
       </c>
       <c r="DO2">
-        <v>1</v>
+        <v>0.9938424110255332</v>
       </c>
       <c r="DP2">
-        <v>1</v>
+        <v>0.9971554960677473</v>
       </c>
       <c r="DQ2">
-        <v>1</v>
+        <v>0.997161604088232</v>
       </c>
       <c r="DR2">
-        <v>1</v>
+        <v>0.9980206528406632</v>
       </c>
       <c r="DS2">
-        <v>1</v>
+        <v>0.9999668081532589</v>
       </c>
       <c r="DT2">
         <v>1</v>
@@ -6027,97 +6027,97 @@
         <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.3767972457842637</v>
+        <v>0.3174054926966229</v>
       </c>
       <c r="CP3">
-        <v>0.4341046608390339</v>
+        <v>0.3741590567345298</v>
       </c>
       <c r="CQ3">
-        <v>0.6215708230597566</v>
+        <v>0.5371010662799006</v>
       </c>
       <c r="CR3">
-        <v>0.6215708230597566</v>
+        <v>0.5379694142478564</v>
       </c>
       <c r="CS3">
-        <v>0.6718603547001424</v>
+        <v>0.5889975226652052</v>
       </c>
       <c r="CT3">
-        <v>0.6861666888156882</v>
+        <v>0.6106691729669961</v>
       </c>
       <c r="CU3">
-        <v>0.715086188752847</v>
+        <v>0.6442627985207567</v>
       </c>
       <c r="CV3">
-        <v>0.715086188752847</v>
+        <v>0.6459885526144828</v>
       </c>
       <c r="CW3">
-        <v>0.715086188752847</v>
+        <v>0.6465105880694768</v>
       </c>
       <c r="CX3">
-        <v>0.7441844315362908</v>
+        <v>0.6802500388205897</v>
       </c>
       <c r="CY3">
-        <v>0.7441844315362908</v>
+        <v>0.6806723497851958</v>
       </c>
       <c r="CZ3">
-        <v>0.8222697284638978</v>
+        <v>0.7543772983827675</v>
       </c>
       <c r="DA3">
-        <v>0.8810056983968255</v>
+        <v>0.8122963317044269</v>
       </c>
       <c r="DB3">
-        <v>0.936977591493293</v>
+        <v>0.8679603262452301</v>
       </c>
       <c r="DC3">
-        <v>0.9378071288832823</v>
+        <v>0.8786370943292143</v>
       </c>
       <c r="DD3">
-        <v>0.981676931021698</v>
+        <v>0.9244277437879005</v>
       </c>
       <c r="DE3">
-        <v>0.981676931021698</v>
+        <v>0.9296597866393567</v>
       </c>
       <c r="DF3">
-        <v>0.9934586755706708</v>
+        <v>0.9492717809636899</v>
       </c>
       <c r="DG3">
-        <v>0.9934586755706708</v>
+        <v>0.9493112385720485</v>
       </c>
       <c r="DH3">
-        <v>0.9934586755706708</v>
+        <v>0.9493504491172257</v>
       </c>
       <c r="DI3">
-        <v>0.995795390409969</v>
+        <v>0.9612568297622616</v>
       </c>
       <c r="DJ3">
-        <v>0.995795390409969</v>
+        <v>0.9612714844517378</v>
       </c>
       <c r="DK3">
-        <v>0.995795390409969</v>
+        <v>0.9620086154494517</v>
       </c>
       <c r="DL3">
-        <v>0.995795390409969</v>
+        <v>0.9647717105235114</v>
       </c>
       <c r="DM3">
-        <v>0.995795390409969</v>
+        <v>0.9666471987537752</v>
       </c>
       <c r="DN3">
-        <v>0.995795390409969</v>
+        <v>0.9726184990440718</v>
       </c>
       <c r="DO3">
-        <v>1</v>
+        <v>0.9860487791140076</v>
       </c>
       <c r="DP3">
-        <v>1</v>
+        <v>0.9918267462125476</v>
       </c>
       <c r="DQ3">
-        <v>1</v>
+        <v>0.9946595523941493</v>
       </c>
       <c r="DR3">
-        <v>1</v>
+        <v>0.9947828048459303</v>
       </c>
       <c r="DS3">
-        <v>1</v>
+        <v>0.9974293462383639</v>
       </c>
       <c r="DT3">
         <v>1</v>
@@ -6404,103 +6404,103 @@
         <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.04988328848184409</v>
+        <v>0.04933304196034644</v>
       </c>
       <c r="CP4">
-        <v>0.1198872986832278</v>
+        <v>0.1145313008250506</v>
       </c>
       <c r="CQ4">
-        <v>0.4558882121172412</v>
+        <v>0.3894684857827936</v>
       </c>
       <c r="CR4">
-        <v>0.4803435709607532</v>
+        <v>0.418751570054539</v>
       </c>
       <c r="CS4">
-        <v>0.4943707282370646</v>
+        <v>0.4398120029675445</v>
       </c>
       <c r="CT4">
-        <v>0.5267144970783476</v>
+        <v>0.4753151094328082</v>
       </c>
       <c r="CU4">
-        <v>0.5267144970783476</v>
+        <v>0.4758390707127811</v>
       </c>
       <c r="CV4">
-        <v>0.5609338410129198</v>
+        <v>0.5128210707331674</v>
       </c>
       <c r="CW4">
-        <v>0.5609338410129198</v>
+        <v>0.5155728666470363</v>
       </c>
       <c r="CX4">
-        <v>0.5845889880281212</v>
+        <v>0.5442249827854045</v>
       </c>
       <c r="CY4">
-        <v>0.5856265611561092</v>
+        <v>0.5550431106318663</v>
       </c>
       <c r="CZ4">
-        <v>0.5997469788327668</v>
+        <v>0.576177079499531</v>
       </c>
       <c r="DA4">
-        <v>0.804487681490333</v>
+        <v>0.7476154067171105</v>
       </c>
       <c r="DB4">
-        <v>0.804487681490333</v>
+        <v>0.7553833577919671</v>
       </c>
       <c r="DC4">
-        <v>0.8727945635064762</v>
+        <v>0.8192434287353507</v>
       </c>
       <c r="DD4">
-        <v>0.9750702638374986</v>
+        <v>0.9098879599014966</v>
       </c>
       <c r="DE4">
-        <v>0.9750702638374986</v>
+        <v>0.9190175341793728</v>
       </c>
       <c r="DF4">
-        <v>0.9890785058803631</v>
+        <v>0.9400630524046442</v>
       </c>
       <c r="DG4">
-        <v>0.9890785058803631</v>
+        <v>0.9431478184371549</v>
       </c>
       <c r="DH4">
-        <v>0.9890785058803631</v>
+        <v>0.9434045139397712</v>
       </c>
       <c r="DI4">
-        <v>0.9890785058803631</v>
+        <v>0.9435432269270564</v>
       </c>
       <c r="DJ4">
-        <v>0.9890785058803631</v>
+        <v>0.9451477590207055</v>
       </c>
       <c r="DK4">
-        <v>0.9890785058803631</v>
+        <v>0.9451843978255753</v>
       </c>
       <c r="DL4">
-        <v>0.9890785058803631</v>
+        <v>0.9468231133072639</v>
       </c>
       <c r="DM4">
-        <v>0.9890785058803631</v>
+        <v>0.9478030540775054</v>
       </c>
       <c r="DN4">
-        <v>0.9890785058803631</v>
+        <v>0.956309365421942</v>
       </c>
       <c r="DO4">
-        <v>0.9890785058803631</v>
+        <v>0.9657399612393869</v>
       </c>
       <c r="DP4">
-        <v>0.9967358650330066</v>
+        <v>0.9817777995219611</v>
       </c>
       <c r="DQ4">
-        <v>0.9999999999999999</v>
+        <v>0.9943515744579842</v>
       </c>
       <c r="DR4">
-        <v>0.9999999999999999</v>
+        <v>0.9964034739669291</v>
       </c>
       <c r="DS4">
-        <v>0.9999999999999999</v>
+        <v>0.9965330624807094</v>
       </c>
       <c r="DT4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DU4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:125">
@@ -6784,97 +6784,97 @@
         <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.4380071043452757</v>
+        <v>0.3668019669958067</v>
       </c>
       <c r="CQ5">
-        <v>0.4444658645538722</v>
+        <v>0.3820632934079118</v>
       </c>
       <c r="CR5">
-        <v>0.6558748282464375</v>
+        <v>0.5642777012057153</v>
       </c>
       <c r="CS5">
-        <v>0.6558748282464375</v>
+        <v>0.5643637119481432</v>
       </c>
       <c r="CT5">
-        <v>0.6970785247412682</v>
+        <v>0.6079283729114154</v>
       </c>
       <c r="CU5">
-        <v>0.7149504556113737</v>
+        <v>0.6324869040977955</v>
       </c>
       <c r="CV5">
-        <v>0.7288368211450997</v>
+        <v>0.6537987812059588</v>
       </c>
       <c r="CW5">
-        <v>0.7288368211450997</v>
+        <v>0.6568695358350597</v>
       </c>
       <c r="CX5">
-        <v>0.7288368211450997</v>
+        <v>0.6568735390413205</v>
       </c>
       <c r="CY5">
-        <v>0.7570093465044341</v>
+        <v>0.6898229669472338</v>
       </c>
       <c r="CZ5">
-        <v>0.7570093465044341</v>
+        <v>0.6901010231325564</v>
       </c>
       <c r="DA5">
-        <v>0.7805931189040658</v>
+        <v>0.7193124384221513</v>
       </c>
       <c r="DB5">
-        <v>0.8566498455534386</v>
+        <v>0.7912684875422283</v>
       </c>
       <c r="DC5">
-        <v>0.8815108491804606</v>
+        <v>0.8215203394131488</v>
       </c>
       <c r="DD5">
-        <v>0.9259606593541752</v>
+        <v>0.8677292948050447</v>
       </c>
       <c r="DE5">
-        <v>0.9380225061784161</v>
+        <v>0.8875549132249202</v>
       </c>
       <c r="DF5">
-        <v>0.9380225061784161</v>
+        <v>0.892983885962182</v>
       </c>
       <c r="DG5">
-        <v>0.9702785709198521</v>
+        <v>0.9292597779125922</v>
       </c>
       <c r="DH5">
-        <v>0.9702785709198521</v>
+        <v>0.9294282219806479</v>
       </c>
       <c r="DI5">
-        <v>0.9702785709198521</v>
+        <v>0.9294752740749075</v>
       </c>
       <c r="DJ5">
-        <v>0.9982314417257832</v>
+        <v>0.9622457706896697</v>
       </c>
       <c r="DK5">
-        <v>0.9982314417257832</v>
+        <v>0.9644293982296859</v>
       </c>
       <c r="DL5">
-        <v>0.9982314417257832</v>
+        <v>0.9675622225775404</v>
       </c>
       <c r="DM5">
-        <v>0.9989423610279624</v>
+        <v>0.9781413396806112</v>
       </c>
       <c r="DN5">
-        <v>0.9989423610279624</v>
+        <v>0.9795265876875503</v>
       </c>
       <c r="DO5">
-        <v>0.9989423610279624</v>
+        <v>0.9847925665750829</v>
       </c>
       <c r="DP5">
-        <v>1</v>
+        <v>0.9956541226134457</v>
       </c>
       <c r="DQ5">
-        <v>1</v>
+        <v>0.9956541783946763</v>
       </c>
       <c r="DR5">
-        <v>1</v>
+        <v>0.997537425179253</v>
       </c>
       <c r="DS5">
-        <v>1</v>
+        <v>0.999404584735588</v>
       </c>
       <c r="DT5">
-        <v>1</v>
+        <v>0.9998457100147903</v>
       </c>
       <c r="DU5">
         <v>1</v>
@@ -7158,97 +7158,97 @@
         <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.23857682384639</v>
+        <v>0.204629620905071</v>
       </c>
       <c r="CP6">
-        <v>0.3568946199544597</v>
+        <v>0.3111526084760011</v>
       </c>
       <c r="CQ6">
-        <v>0.4402441372651042</v>
+        <v>0.38914867236541</v>
       </c>
       <c r="CR6">
-        <v>0.4402441372651042</v>
+        <v>0.39218129798731</v>
       </c>
       <c r="CS6">
-        <v>0.5347430129457822</v>
+        <v>0.4792729452527956</v>
       </c>
       <c r="CT6">
-        <v>0.5347430129457822</v>
+        <v>0.4816104868560823</v>
       </c>
       <c r="CU6">
-        <v>0.5347430129457822</v>
+        <v>0.4817931317313626</v>
       </c>
       <c r="CV6">
-        <v>0.5701719926672548</v>
+        <v>0.5206958926159799</v>
       </c>
       <c r="CW6">
-        <v>0.5701719926672548</v>
+        <v>0.5222448871070571</v>
       </c>
       <c r="CX6">
-        <v>0.5898729042720303</v>
+        <v>0.5483167791513177</v>
       </c>
       <c r="CY6">
-        <v>0.6356065315828234</v>
+        <v>0.5956260131439898</v>
       </c>
       <c r="CZ6">
-        <v>0.662266591288931</v>
+        <v>0.6273751387725846</v>
       </c>
       <c r="DA6">
-        <v>0.7055405917943354</v>
+        <v>0.6726778231558571</v>
       </c>
       <c r="DB6">
-        <v>0.784237878145407</v>
+        <v>0.7468786233921314</v>
       </c>
       <c r="DC6">
-        <v>0.784237878145407</v>
+        <v>0.7492726460611425</v>
       </c>
       <c r="DD6">
-        <v>0.9538806527495372</v>
+        <v>0.897666260236109</v>
       </c>
       <c r="DE6">
-        <v>0.9714506950067145</v>
+        <v>0.921999801142003</v>
       </c>
       <c r="DF6">
-        <v>0.999637875487849</v>
+        <v>0.954994743244838</v>
       </c>
       <c r="DG6">
-        <v>0.999637875487849</v>
+        <v>0.9558397079699966</v>
       </c>
       <c r="DH6">
-        <v>0.999637875487849</v>
+        <v>0.9558466835434182</v>
       </c>
       <c r="DI6">
-        <v>0.999637875487849</v>
+        <v>0.9584571672596989</v>
       </c>
       <c r="DJ6">
-        <v>0.999637875487849</v>
+        <v>0.9588318234275849</v>
       </c>
       <c r="DK6">
-        <v>0.999637875487849</v>
+        <v>0.9588332926008915</v>
       </c>
       <c r="DL6">
-        <v>0.999637875487849</v>
+        <v>0.9596050209204774</v>
       </c>
       <c r="DM6">
-        <v>0.999637875487849</v>
+        <v>0.9603934572091328</v>
       </c>
       <c r="DN6">
-        <v>0.999637875487849</v>
+        <v>0.9639069113333253</v>
       </c>
       <c r="DO6">
-        <v>0.999637875487849</v>
+        <v>0.9737573584628451</v>
       </c>
       <c r="DP6">
-        <v>0.999637875487849</v>
+        <v>0.9835033087175503</v>
       </c>
       <c r="DQ6">
-        <v>1</v>
+        <v>0.9937987278424432</v>
       </c>
       <c r="DR6">
-        <v>1</v>
+        <v>0.9971881468882899</v>
       </c>
       <c r="DS6">
-        <v>1</v>
+        <v>0.9978929629872565</v>
       </c>
       <c r="DT6">
         <v>1</v>
@@ -7532,97 +7532,97 @@
         <v>0</v>
       </c>
       <c r="CN7">
-        <v>0.2196355719532953</v>
+        <v>0.1892514190510882</v>
       </c>
       <c r="CO7">
-        <v>0.2196355719532953</v>
+        <v>0.1906309594919096</v>
       </c>
       <c r="CP7">
-        <v>0.4371418212697435</v>
+        <v>0.3781445721354201</v>
       </c>
       <c r="CQ7">
-        <v>0.4371418212697435</v>
+        <v>0.3834052966053204</v>
       </c>
       <c r="CR7">
-        <v>0.4440407970238825</v>
+        <v>0.399035765217169</v>
       </c>
       <c r="CS7">
-        <v>0.5083085644828627</v>
+        <v>0.4614866884160634</v>
       </c>
       <c r="CT7">
-        <v>0.5616661052038446</v>
+        <v>0.5150334363597256</v>
       </c>
       <c r="CU7">
-        <v>0.5616661052038446</v>
+        <v>0.5150405009710722</v>
       </c>
       <c r="CV7">
-        <v>0.5729177818352844</v>
+        <v>0.5342233441005013</v>
       </c>
       <c r="CW7">
-        <v>0.5729177818352844</v>
+        <v>0.5346694362486435</v>
       </c>
       <c r="CX7">
-        <v>0.594061066372463</v>
+        <v>0.5619251281340004</v>
       </c>
       <c r="CY7">
-        <v>0.6461079428321737</v>
+        <v>0.614402202223637</v>
       </c>
       <c r="CZ7">
-        <v>0.6830061992029446</v>
+        <v>0.654516016466705</v>
       </c>
       <c r="DA7">
-        <v>0.6830061992029446</v>
+        <v>0.6598653735939245</v>
       </c>
       <c r="DB7">
-        <v>0.8078995411897687</v>
+        <v>0.7717947130996929</v>
       </c>
       <c r="DC7">
-        <v>0.8679347631174472</v>
+        <v>0.8307913242946763</v>
       </c>
       <c r="DD7">
-        <v>0.9306868176957859</v>
+        <v>0.8920052270860259</v>
       </c>
       <c r="DE7">
-        <v>1</v>
+        <v>0.9585738702091863</v>
       </c>
       <c r="DF7">
-        <v>1</v>
+        <v>0.9667947730761164</v>
       </c>
       <c r="DG7">
-        <v>1</v>
+        <v>0.9710598321366847</v>
       </c>
       <c r="DH7">
-        <v>1</v>
+        <v>0.9710919502845013</v>
       </c>
       <c r="DI7">
-        <v>1</v>
+        <v>0.9732141453133473</v>
       </c>
       <c r="DJ7">
-        <v>1</v>
+        <v>0.9732169936611151</v>
       </c>
       <c r="DK7">
-        <v>1</v>
+        <v>0.976970033557985</v>
       </c>
       <c r="DL7">
-        <v>1</v>
+        <v>0.9785168267675572</v>
       </c>
       <c r="DM7">
-        <v>1</v>
+        <v>0.9792400566050672</v>
       </c>
       <c r="DN7">
-        <v>1</v>
+        <v>0.9796773428727032</v>
       </c>
       <c r="DO7">
-        <v>1</v>
+        <v>0.9894081403175011</v>
       </c>
       <c r="DP7">
-        <v>1</v>
+        <v>0.9943448188890368</v>
       </c>
       <c r="DQ7">
-        <v>1</v>
+        <v>0.9989209104406885</v>
       </c>
       <c r="DR7">
-        <v>1</v>
+        <v>0.9999393371643582</v>
       </c>
       <c r="DS7">
         <v>1</v>
@@ -7639,97 +7639,97 @@
         <v>131</v>
       </c>
       <c r="B8">
-        <v>0.1215229536578553</v>
+        <v>0.1114107512938481</v>
       </c>
       <c r="C8">
-        <v>0.3335277959288353</v>
+        <v>0.3001940120786296</v>
       </c>
       <c r="D8">
-        <v>0.5099876864123013</v>
+        <v>0.4585822163312326</v>
       </c>
       <c r="E8">
-        <v>0.6506359261742014</v>
+        <v>0.5863473055294222</v>
       </c>
       <c r="F8">
-        <v>0.6506359261742014</v>
+        <v>0.5928512976133448</v>
       </c>
       <c r="G8">
-        <v>0.6506359261742014</v>
+        <v>0.595716487362962</v>
       </c>
       <c r="H8">
-        <v>0.6506359261742014</v>
+        <v>0.5991207475077021</v>
       </c>
       <c r="I8">
-        <v>0.6506359261742014</v>
+        <v>0.5991207475077021</v>
       </c>
       <c r="J8">
-        <v>0.6506359261742014</v>
+        <v>0.5991207475077021</v>
       </c>
       <c r="K8">
-        <v>0.6506359261742014</v>
+        <v>0.6015366781716083</v>
       </c>
       <c r="L8">
-        <v>0.6506359261742014</v>
+        <v>0.6015366781716083</v>
       </c>
       <c r="M8">
-        <v>0.7055562213507289</v>
+        <v>0.6559944314185031</v>
       </c>
       <c r="N8">
-        <v>0.7529187448151402</v>
+        <v>0.7039894132479454</v>
       </c>
       <c r="O8">
-        <v>0.7721105301758131</v>
+        <v>0.7278951465580776</v>
       </c>
       <c r="P8">
-        <v>0.7729626425402654</v>
+        <v>0.7361183322919995</v>
       </c>
       <c r="Q8">
-        <v>0.7729626425402654</v>
+        <v>0.7361183322919995</v>
       </c>
       <c r="R8">
-        <v>0.7729626425402654</v>
+        <v>0.7431441317941128</v>
       </c>
       <c r="S8">
-        <v>0.7729626425402654</v>
+        <v>0.743685463229478</v>
       </c>
       <c r="T8">
-        <v>0.816371408784049</v>
+        <v>0.7882995240506747</v>
       </c>
       <c r="U8">
-        <v>0.8566458644933904</v>
+        <v>0.8302333858255123</v>
       </c>
       <c r="V8">
-        <v>0.8566458644933904</v>
+        <v>0.8361363758528969</v>
       </c>
       <c r="W8">
-        <v>0.8566458644933904</v>
+        <v>0.8369432928808388</v>
       </c>
       <c r="X8">
-        <v>0.9038403771035562</v>
+        <v>0.8847946059428191</v>
       </c>
       <c r="Y8">
-        <v>0.9638352199283053</v>
+        <v>0.9435916860107201</v>
       </c>
       <c r="Z8">
-        <v>0.9638352199283053</v>
+        <v>0.9492490493131888</v>
       </c>
       <c r="AA8">
-        <v>0.9638352199283053</v>
+        <v>0.9492490493131888</v>
       </c>
       <c r="AB8">
-        <v>0.9638352199283053</v>
+        <v>0.9535046390602281</v>
       </c>
       <c r="AC8">
-        <v>0.9638352199283053</v>
+        <v>0.9539075933542247</v>
       </c>
       <c r="AD8">
-        <v>0.9638352199283053</v>
+        <v>0.9540858567361542</v>
       </c>
       <c r="AE8">
-        <v>0.9638352199283053</v>
+        <v>0.9540858567361542</v>
       </c>
       <c r="AF8">
-        <v>0.9973235153393168</v>
+        <v>0.9902167643492529</v>
       </c>
       <c r="AG8">
         <v>1</v>
@@ -8016,97 +8016,97 @@
         <v>132</v>
       </c>
       <c r="B9">
-        <v>0.1114823607994828</v>
+        <v>0.09945898213138241</v>
       </c>
       <c r="C9">
-        <v>0.170148205205517</v>
+        <v>0.1565189816625866</v>
       </c>
       <c r="D9">
-        <v>0.1892965723295535</v>
+        <v>0.181855934198397</v>
       </c>
       <c r="E9">
-        <v>0.1892965723295535</v>
+        <v>0.181855934198397</v>
       </c>
       <c r="F9">
-        <v>0.1892965723295535</v>
+        <v>0.181855934198397</v>
       </c>
       <c r="G9">
-        <v>0.1892965723295535</v>
+        <v>0.181855934198397</v>
       </c>
       <c r="H9">
-        <v>0.2042569452966334</v>
+        <v>0.2038309328698575</v>
       </c>
       <c r="I9">
-        <v>0.2775806726041722</v>
+        <v>0.2726576933412709</v>
       </c>
       <c r="J9">
-        <v>0.3210609881340555</v>
+        <v>0.317527358890617</v>
       </c>
       <c r="K9">
-        <v>0.3270561694578648</v>
+        <v>0.3323054610144392</v>
       </c>
       <c r="L9">
-        <v>0.3270561694578648</v>
+        <v>0.3389051773506784</v>
       </c>
       <c r="M9">
-        <v>0.3447859922472272</v>
+        <v>0.3631033793464988</v>
       </c>
       <c r="N9">
-        <v>0.5074037094840287</v>
+        <v>0.5036117762421748</v>
       </c>
       <c r="O9">
-        <v>0.6677480351362365</v>
+        <v>0.6422951854858721</v>
       </c>
       <c r="P9">
-        <v>0.8290796111913218</v>
+        <v>0.7817711197863489</v>
       </c>
       <c r="Q9">
-        <v>0.89537939055254</v>
+        <v>0.8449593363496005</v>
       </c>
       <c r="R9">
-        <v>0.89537939055254</v>
+        <v>0.8476028443292739</v>
       </c>
       <c r="S9">
-        <v>0.89537939055254</v>
+        <v>0.8476028443292739</v>
       </c>
       <c r="T9">
-        <v>0.89537939055254</v>
+        <v>0.8493805868211045</v>
       </c>
       <c r="U9">
-        <v>0.89537939055254</v>
+        <v>0.8501064109232123</v>
       </c>
       <c r="V9">
-        <v>0.89537939055254</v>
+        <v>0.8525735436525977</v>
       </c>
       <c r="W9">
-        <v>0.89537939055254</v>
+        <v>0.8538586056607634</v>
       </c>
       <c r="X9">
-        <v>0.9061513651989526</v>
+        <v>0.8724713260214451</v>
       </c>
       <c r="Y9">
-        <v>0.9454109698123827</v>
+        <v>0.9139527740031275</v>
       </c>
       <c r="Z9">
-        <v>0.9759587128891847</v>
+        <v>0.9484406886939153</v>
       </c>
       <c r="AA9">
-        <v>0.9894216856671959</v>
+        <v>0.9692136345058332</v>
       </c>
       <c r="AB9">
-        <v>0.9894216856671959</v>
+        <v>0.973447776075246</v>
       </c>
       <c r="AC9">
-        <v>0.9894216856671959</v>
+        <v>0.9735084633742146</v>
       </c>
       <c r="AD9">
-        <v>0.9894216856671959</v>
+        <v>0.97358002236166</v>
       </c>
       <c r="AE9">
-        <v>0.9894216856671959</v>
+        <v>0.9758844396819562</v>
       </c>
       <c r="AF9">
-        <v>1</v>
+        <v>0.9943416973043181</v>
       </c>
       <c r="AG9">
         <v>1</v>
@@ -8666,97 +8666,97 @@
         <v>0</v>
       </c>
       <c r="CO10">
-        <v>0.06725723290084042</v>
+        <v>0.06313791292274543</v>
       </c>
       <c r="CP10">
-        <v>0.3221718732224492</v>
+        <v>0.2745382884052366</v>
       </c>
       <c r="CQ10">
-        <v>0.565786094825429</v>
+        <v>0.4770105435955002</v>
       </c>
       <c r="CR10">
-        <v>0.6069874373086719</v>
+        <v>0.5195624826918144</v>
       </c>
       <c r="CS10">
-        <v>0.6069874373086719</v>
+        <v>0.5198888622345486</v>
       </c>
       <c r="CT10">
-        <v>0.6069874373086719</v>
+        <v>0.527122238958469</v>
       </c>
       <c r="CU10">
-        <v>0.6481568219550775</v>
+        <v>0.5696489291309452</v>
       </c>
       <c r="CV10">
-        <v>0.6481568219550775</v>
+        <v>0.5793280116180215</v>
       </c>
       <c r="CW10">
-        <v>0.6481568219550775</v>
+        <v>0.5799909306590909</v>
       </c>
       <c r="CX10">
-        <v>0.7208768556940528</v>
+        <v>0.6474448379029093</v>
       </c>
       <c r="CY10">
-        <v>0.7391700079673718</v>
+        <v>0.6718977062511401</v>
       </c>
       <c r="CZ10">
-        <v>0.750830435064766</v>
+        <v>0.6911102583146017</v>
       </c>
       <c r="DA10">
-        <v>0.8398553223545757</v>
+        <v>0.7714461390032648</v>
       </c>
       <c r="DB10">
-        <v>0.8398553223545757</v>
+        <v>0.7732150450175953</v>
       </c>
       <c r="DC10">
-        <v>0.8788426718969967</v>
+        <v>0.814017775009895</v>
       </c>
       <c r="DD10">
-        <v>0.8788426718969967</v>
+        <v>0.8143573494202491</v>
       </c>
       <c r="DE10">
-        <v>0.8788426718969967</v>
+        <v>0.8225979220526489</v>
       </c>
       <c r="DF10">
-        <v>0.9013311006317013</v>
+        <v>0.8503653519086454</v>
       </c>
       <c r="DG10">
-        <v>0.9035969541566298</v>
+        <v>0.8621555344973472</v>
       </c>
       <c r="DH10">
-        <v>0.9035969541566298</v>
+        <v>0.8621739315175276</v>
       </c>
       <c r="DI10">
-        <v>0.91765810199977</v>
+        <v>0.8832832206966443</v>
       </c>
       <c r="DJ10">
-        <v>0.9724469094508863</v>
+        <v>0.9365702064067285</v>
       </c>
       <c r="DK10">
-        <v>0.9724469094508863</v>
+        <v>0.9367390919293249</v>
       </c>
       <c r="DL10">
-        <v>0.9724469094508863</v>
+        <v>0.943052135135291</v>
       </c>
       <c r="DM10">
-        <v>0.9724469094508863</v>
+        <v>0.9434289798525258</v>
       </c>
       <c r="DN10">
-        <v>0.979210138581703</v>
+        <v>0.9587724033793273</v>
       </c>
       <c r="DO10">
-        <v>0.9954760086585664</v>
+        <v>0.9816235771561518</v>
       </c>
       <c r="DP10">
-        <v>1</v>
+        <v>0.9951978463848424</v>
       </c>
       <c r="DQ10">
-        <v>1</v>
+        <v>0.9957063150144647</v>
       </c>
       <c r="DR10">
-        <v>1</v>
+        <v>0.996836085848554</v>
       </c>
       <c r="DS10">
-        <v>1</v>
+        <v>0.9973231374545958</v>
       </c>
       <c r="DT10">
         <v>1</v>
@@ -8773,97 +8773,97 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03584585377178551</v>
+        <v>0.03623550308946289</v>
       </c>
       <c r="D11">
-        <v>0.1131338170396633</v>
+        <v>0.107445765424439</v>
       </c>
       <c r="E11">
-        <v>0.1924491285283907</v>
+        <v>0.1803669931710026</v>
       </c>
       <c r="F11">
-        <v>0.2641871378749173</v>
+        <v>0.2468934132840655</v>
       </c>
       <c r="G11">
-        <v>0.3269715021833744</v>
+        <v>0.3058634714410414</v>
       </c>
       <c r="H11">
-        <v>0.3610932107230288</v>
+        <v>0.3406438950200423</v>
       </c>
       <c r="I11">
-        <v>0.40948606410939</v>
+        <v>0.3874683448621967</v>
       </c>
       <c r="J11">
-        <v>0.4299890534345345</v>
+        <v>0.410755351924728</v>
       </c>
       <c r="K11">
-        <v>0.4299890534345345</v>
+        <v>0.410755351924728</v>
       </c>
       <c r="L11">
-        <v>0.4299890534345345</v>
+        <v>0.410755351924728</v>
       </c>
       <c r="M11">
-        <v>0.4299890534345345</v>
+        <v>0.410755351924728</v>
       </c>
       <c r="N11">
-        <v>0.4377402524212359</v>
+        <v>0.4232805806304322</v>
       </c>
       <c r="O11">
-        <v>0.4377402524212359</v>
+        <v>0.4276237681670137</v>
       </c>
       <c r="P11">
-        <v>0.4548716875609968</v>
+        <v>0.4480653772189029</v>
       </c>
       <c r="Q11">
-        <v>0.5110626569199809</v>
+        <v>0.5014709888799747</v>
       </c>
       <c r="R11">
-        <v>0.5766288048909604</v>
+        <v>0.5627887126131682</v>
       </c>
       <c r="S11">
-        <v>0.6419550655246353</v>
+        <v>0.6239039852170567</v>
       </c>
       <c r="T11">
-        <v>0.7188554351746509</v>
+        <v>0.6947871408088033</v>
       </c>
       <c r="U11">
-        <v>0.7631960245017304</v>
+        <v>0.738191712618784</v>
       </c>
       <c r="V11">
-        <v>0.8040161740259389</v>
+        <v>0.7786252355115916</v>
       </c>
       <c r="W11">
-        <v>0.8243569359175896</v>
+        <v>0.8017753319414728</v>
       </c>
       <c r="X11">
-        <v>0.8243837133150528</v>
+        <v>0.8077815926535248</v>
       </c>
       <c r="Y11">
-        <v>0.8243837133150528</v>
+        <v>0.8077815926535248</v>
       </c>
       <c r="Z11">
-        <v>0.8243837133150528</v>
+        <v>0.8077815926535248</v>
       </c>
       <c r="AA11">
-        <v>0.8243837133150528</v>
+        <v>0.8099043096594782</v>
       </c>
       <c r="AB11">
-        <v>0.8276661387572648</v>
+        <v>0.8186581502591794</v>
       </c>
       <c r="AC11">
-        <v>0.8551126284770912</v>
+        <v>0.8478050726971099</v>
       </c>
       <c r="AD11">
-        <v>0.9032592102310382</v>
+        <v>0.8944216834317136</v>
       </c>
       <c r="AE11">
-        <v>0.9379422377901244</v>
+        <v>0.929675828011003</v>
       </c>
       <c r="AF11">
-        <v>0.9652987707506923</v>
+        <v>0.9587468321128297</v>
       </c>
       <c r="AG11">
-        <v>0.992454975190103</v>
+        <v>0.9876487704532201</v>
       </c>
       <c r="AH11">
         <v>1</v>
@@ -9207,16 +9207,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5351082908182954</v>
+        <v>0.5539111650332803</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6215708230597566</v>
+        <v>0.5371010662799006</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -9289,16 +9289,16 @@
         <v>91</v>
       </c>
       <c r="D4">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5267144970783476</v>
+        <v>0.5128210707331674</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>16</v>
@@ -9336,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6558748282464375</v>
+        <v>0.5642777012057153</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -9371,16 +9371,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5347430129457822</v>
+        <v>0.5206958926159799</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -9412,16 +9412,16 @@
         <v>89</v>
       </c>
       <c r="D7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5083085644828627</v>
+        <v>0.5150334363597256</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>16</v>
@@ -9453,16 +9453,16 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>0.1114107512938481</v>
+      </c>
+      <c r="F8">
+        <v>0.5863473055294222</v>
+      </c>
+      <c r="G8">
         <v>3</v>
-      </c>
-      <c r="E8">
-        <v>0.1215229536578553</v>
-      </c>
-      <c r="F8">
-        <v>0.5099876864123013</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
       </c>
       <c r="H8">
         <v>16</v>
@@ -9491,19 +9491,19 @@
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>13</v>
       </c>
       <c r="E9">
-        <v>0.1892965723295535</v>
+        <v>0.181855934198397</v>
       </c>
       <c r="F9">
-        <v>0.5074037094840287</v>
+        <v>0.5036117762421748</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>16</v>
@@ -9535,16 +9535,16 @@
         <v>90</v>
       </c>
       <c r="D10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.565786094825429</v>
+        <v>0.5195624826918144</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10">
         <v>16</v>
@@ -9582,7 +9582,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5110626569199809</v>
+        <v>0.5014709888799747</v>
       </c>
       <c r="G11">
         <v>15</v>
@@ -9671,16 +9671,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7138331157120512</v>
+        <v>0.7011661882861118</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -9712,16 +9712,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.715086188752847</v>
+        <v>0.7543772983827675</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -9759,7 +9759,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.804487681490333</v>
+        <v>0.7476154067171105</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -9794,16 +9794,16 @@
         <v>91</v>
       </c>
       <c r="D5">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7149504556113737</v>
+        <v>0.7193124384221513</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -9835,16 +9835,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7055405917943354</v>
+        <v>0.7468786233921314</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -9882,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8078995411897687</v>
+        <v>0.7717947130996929</v>
       </c>
       <c r="G7">
         <v>16</v>
@@ -9917,16 +9917,16 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>0.1114107512938481</v>
+      </c>
+      <c r="F8">
+        <v>0.7039894132479454</v>
+      </c>
+      <c r="G8">
         <v>12</v>
-      </c>
-      <c r="E8">
-        <v>0.1215229536578553</v>
-      </c>
-      <c r="F8">
-        <v>0.7055562213507289</v>
-      </c>
-      <c r="G8">
-        <v>11</v>
       </c>
       <c r="H8">
         <v>16</v>
@@ -9955,19 +9955,19 @@
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>15</v>
       </c>
       <c r="E9">
-        <v>0.1892965723295535</v>
+        <v>0.181855934198397</v>
       </c>
       <c r="F9">
-        <v>0.8290796111913218</v>
+        <v>0.7817711197863489</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>16</v>
@@ -9999,16 +9999,16 @@
         <v>90</v>
       </c>
       <c r="D10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7208768556940528</v>
+        <v>0.7714461390032648</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H10">
         <v>16</v>
@@ -10040,16 +10040,16 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.738191712618784</v>
+      </c>
+      <c r="G11">
         <v>19</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.7188554351746509</v>
-      </c>
-      <c r="G11">
-        <v>18</v>
       </c>
       <c r="H11">
         <v>16</v>
@@ -10141,7 +10141,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8510959346277877</v>
+        <v>0.800220623744855</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -10176,16 +10176,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8222697284638978</v>
+        <v>0.8122963317044269</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -10217,16 +10217,16 @@
         <v>91</v>
       </c>
       <c r="D4">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.804487681490333</v>
+        <v>0.8192434287353507</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>16</v>
@@ -10258,16 +10258,16 @@
         <v>91</v>
       </c>
       <c r="D5">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8566498455534386</v>
+        <v>0.8215203394131488</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -10305,7 +10305,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9538806527495372</v>
+        <v>0.897666260236109</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -10340,16 +10340,16 @@
         <v>89</v>
       </c>
       <c r="D7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8078995411897687</v>
+        <v>0.8307913242946763</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7">
         <v>16</v>
@@ -10381,16 +10381,16 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>0.1114107512938481</v>
+      </c>
+      <c r="F8">
+        <v>0.8302333858255123</v>
+      </c>
+      <c r="G8">
         <v>19</v>
-      </c>
-      <c r="E8">
-        <v>0.1215229536578553</v>
-      </c>
-      <c r="F8">
-        <v>0.816371408784049</v>
-      </c>
-      <c r="G8">
-        <v>18</v>
       </c>
       <c r="H8">
         <v>16</v>
@@ -10419,19 +10419,19 @@
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9">
-        <v>0.1892965723295535</v>
+        <v>0.181855934198397</v>
       </c>
       <c r="F9">
-        <v>0.8290796111913218</v>
+        <v>0.8449593363496005</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H9">
         <v>16</v>
@@ -10463,16 +10463,16 @@
         <v>90</v>
       </c>
       <c r="D10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8398553223545757</v>
+        <v>0.814017775009895</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H10">
         <v>16</v>
@@ -10504,16 +10504,16 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.8017753319414728</v>
+      </c>
+      <c r="G11">
         <v>21</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.8040161740259389</v>
-      </c>
-      <c r="G11">
-        <v>20</v>
       </c>
       <c r="H11">
         <v>16</v>
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9715133146462347</v>
+        <v>0.9096442664505829</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -10640,16 +10640,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.936977591493293</v>
+        <v>0.9244277437879005</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9750702638374986</v>
+        <v>0.9098879599014966</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -10722,16 +10722,16 @@
         <v>91</v>
       </c>
       <c r="D5">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9259606593541752</v>
+        <v>0.9292597779125922</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -10763,16 +10763,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9538806527495372</v>
+        <v>0.921999801142003</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -10804,16 +10804,16 @@
         <v>89</v>
       </c>
       <c r="D7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9306868176957859</v>
+        <v>0.9585738702091863</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>16</v>
@@ -10845,16 +10845,16 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>0.1114107512938481</v>
+      </c>
+      <c r="F8">
+        <v>0.9435916860107201</v>
+      </c>
+      <c r="G8">
         <v>23</v>
-      </c>
-      <c r="E8">
-        <v>0.1215229536578553</v>
-      </c>
-      <c r="F8">
-        <v>0.9038403771035562</v>
-      </c>
-      <c r="G8">
-        <v>22</v>
       </c>
       <c r="H8">
         <v>16</v>
@@ -10883,19 +10883,19 @@
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>0.1892965723295535</v>
+        <v>0.181855934198397</v>
       </c>
       <c r="F9">
-        <v>0.9061513651989526</v>
+        <v>0.9139527740031275</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <v>16</v>
@@ -10927,16 +10927,16 @@
         <v>90</v>
       </c>
       <c r="D10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9013311006317013</v>
+        <v>0.9365702064067285</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H10">
         <v>16</v>
@@ -10968,16 +10968,16 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.929675828011003</v>
+      </c>
+      <c r="G11">
         <v>29</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.9032592102310382</v>
-      </c>
-      <c r="G11">
-        <v>28</v>
       </c>
       <c r="H11">
         <v>16</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/16_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/16_455-55R22.xlsx
@@ -1424,166 +1424,166 @@
         <v>0</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>0.004365144448590263</v>
       </c>
       <c r="BT2">
-        <v>0</v>
+        <v>0.003750360519034934</v>
       </c>
       <c r="BU2">
-        <v>0</v>
+        <v>0.002928063772112081</v>
       </c>
       <c r="BV2">
-        <v>0</v>
+        <v>0.002571845111791966</v>
       </c>
       <c r="BW2">
-        <v>0</v>
+        <v>0.002270264809391607</v>
       </c>
       <c r="BX2">
-        <v>0</v>
+        <v>0.001944437019368071</v>
       </c>
       <c r="BY2">
-        <v>0</v>
+        <v>0.0005309393964063848</v>
       </c>
       <c r="BZ2">
-        <v>0</v>
+        <v>0.0002119743787074473</v>
       </c>
       <c r="CA2">
-        <v>0</v>
+        <v>6.247411021193219E-06</v>
       </c>
       <c r="CB2">
-        <v>0</v>
+        <v>1.106255877575338E-05</v>
       </c>
       <c r="CC2">
-        <v>0</v>
+        <v>0.0001474034022247366</v>
       </c>
       <c r="CD2">
-        <v>0</v>
+        <v>0.0004619267572597357</v>
       </c>
       <c r="CE2">
-        <v>0</v>
+        <v>0.0009703591898898814</v>
       </c>
       <c r="CF2">
-        <v>0</v>
+        <v>0.002047968893776451</v>
       </c>
       <c r="CG2">
-        <v>0</v>
+        <v>0.002637959697549136</v>
       </c>
       <c r="CH2">
-        <v>0</v>
+        <v>0.003100163758896887</v>
       </c>
       <c r="CI2">
-        <v>0</v>
+        <v>0.002690712875911795</v>
       </c>
       <c r="CJ2">
-        <v>0</v>
+        <v>0.002275990688888988</v>
       </c>
       <c r="CK2">
-        <v>0</v>
+        <v>0.002593529928132318</v>
       </c>
       <c r="CL2">
-        <v>0</v>
+        <v>0.001764803921837284</v>
       </c>
       <c r="CM2">
-        <v>0</v>
+        <v>0.001646634172613995</v>
       </c>
       <c r="CN2">
-        <v>0</v>
+        <v>0.00118129401180428</v>
       </c>
       <c r="CO2">
-        <v>0.01699135750810407</v>
+        <v>0.02326103276046454</v>
       </c>
       <c r="CP2">
-        <v>0.273217788753145</v>
+        <v>0.3740329712853957</v>
       </c>
       <c r="CQ2">
-        <v>0.1815309634185973</v>
+        <v>0.2485144394792883</v>
       </c>
       <c r="CR2">
-        <v>0.08217105535343394</v>
+        <v>0.1124915186809843</v>
       </c>
       <c r="CS2">
-        <v>0.001425284402370682</v>
+        <v>0.001951202966608811</v>
       </c>
       <c r="CT2">
-        <v>0.08536903158924397</v>
+        <v>0.1168695226134473</v>
       </c>
       <c r="CU2">
-        <v>0.006662502259798171</v>
+        <v>0.009120912396665053</v>
       </c>
       <c r="CV2">
-        <v>0.0292749964241364</v>
+        <v>0.04007723635733815</v>
       </c>
       <c r="CW2">
-        <v>0.01586439986740576</v>
+        <v>0.02171823674858401</v>
       </c>
       <c r="CX2">
-        <v>0.008658808709876571</v>
+        <v>0.01185383998723882</v>
       </c>
       <c r="CY2">
-        <v>0.0008718972931110124</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>9.370022638820674E-06</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.09817316814299344</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>1.724671181660372E-05</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.1094063959939113</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.001177195575132335</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.01915097389430743</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.01985018906743961</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.01272561848888401</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.0005625991977334126</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>3.950540638777021E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.005192557114390568</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.01178941466986698</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.008728035810108996</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.004819792408087289</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>5.788494490314086E-06</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.0001564744481217328</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.003313085042214204</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>6.108020484639838E-06</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.0008590487524312995</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.001946155312595717</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>3.31918467412392E-05</v>
+        <v>0</v>
       </c>
       <c r="DU2">
         <v>0</v>
@@ -2734,34 +2734,34 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.1150102242699062</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.08739126930554622</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.122567617256792</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.08308344984832823</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.03710302611332345</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.07152802126271661</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.06062742923598087</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.004175978269311796</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.0372761981238994</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -2773,34 +2773,34 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.05768594696468204</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.1031514303936851</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.05815280031100558</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.05315468242053407</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.02507452530228415</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.02353345092612466</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.03746236702126358</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.02216718410672752</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.0008543988678886234</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -2998,100 +2998,100 @@
         <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.204629620905071</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.1065229875709301</v>
+        <v>0</v>
       </c>
       <c r="CQ6">
-        <v>0.0779960638894089</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.003032625621900035</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.08709164726548557</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.002337541603286713</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.0001826448752803689</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.03890276088461729</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.001548994491077203</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.02607189204426064</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.04730923399267203</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.0317491256285948</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.04530268438327253</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.07420080023627429</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.002394022669011116</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.1483936141749665</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.02433354090589404</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.03299494210283503</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.0008449647251586037</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>6.975573421540861E-06</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.00261048371628067</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.0003746561678860494</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>1.469173306567218E-06</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.0007717283195859649</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.0007884362886553916</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.003513454124192494</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.009850447129519803</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.009745950254705309</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.01029541912489287</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.003389419045846826</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.0007048160989665559</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.002107037012743514</v>
+        <v>0</v>
       </c>
       <c r="DU6">
         <v>0</v>
@@ -4281,100 +4281,100 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.09770962594592442</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.1104796055457074</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>0.04638233301572807</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>0.02544704598846298</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.04063197359415862</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>0.0176764900815729</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>0.0007811350571135212</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>0.001356678129836333</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.001714141292850864</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>0.0005053631515464564</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>0.0005401811518280054</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>0.002911266353572065</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>0.00575637871186847</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>0.01254408145466205</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>0.02275195780497719</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>0.01269616621834701</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>0.01284916681762801</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>0.01006487080648138</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>0.006941673583745612</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>0.03776351715531018</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>0.1018451553577339</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>0.110838207526792</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>0.05740628153152583</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>0.04879535784932253</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>0.01746049054476624</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>0.001631096601854035</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>0.005055379516707932</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>0.007149478411587253</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>0.01630907169792858</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>0.02523154434967612</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>0.03991879238420228</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>0.1008554923665817</v>
       </c>
       <c r="AX10">
         <v>0</v>
@@ -4506,100 +4506,100 @@
         <v>0</v>
       </c>
       <c r="CO10">
-        <v>0.06313791292274543</v>
+        <v>0</v>
       </c>
       <c r="CP10">
-        <v>0.2114003754824912</v>
+        <v>0</v>
       </c>
       <c r="CQ10">
-        <v>0.2024722551902636</v>
+        <v>0</v>
       </c>
       <c r="CR10">
-        <v>0.04255193909631413</v>
+        <v>0</v>
       </c>
       <c r="CS10">
-        <v>0.0003263795427341466</v>
+        <v>0</v>
       </c>
       <c r="CT10">
-        <v>0.007233376723920487</v>
+        <v>0</v>
       </c>
       <c r="CU10">
-        <v>0.04252669017247628</v>
+        <v>0</v>
       </c>
       <c r="CV10">
-        <v>0.009679082487076305</v>
+        <v>0</v>
       </c>
       <c r="CW10">
-        <v>0.0006629190410694133</v>
+        <v>0</v>
       </c>
       <c r="CX10">
-        <v>0.0674539072438184</v>
+        <v>0</v>
       </c>
       <c r="CY10">
-        <v>0.02445286834823083</v>
+        <v>0</v>
       </c>
       <c r="CZ10">
-        <v>0.01921255206346161</v>
+        <v>0</v>
       </c>
       <c r="DA10">
-        <v>0.08033588068866306</v>
+        <v>0</v>
       </c>
       <c r="DB10">
-        <v>0.001768906014330577</v>
+        <v>0</v>
       </c>
       <c r="DC10">
-        <v>0.04080272999229972</v>
+        <v>0</v>
       </c>
       <c r="DD10">
-        <v>0.0003395744103539953</v>
+        <v>0</v>
       </c>
       <c r="DE10">
-        <v>0.00824057263239982</v>
+        <v>0</v>
       </c>
       <c r="DF10">
-        <v>0.02776742985599643</v>
+        <v>0</v>
       </c>
       <c r="DG10">
-        <v>0.0117901825887018</v>
+        <v>0</v>
       </c>
       <c r="DH10">
-        <v>1.839702018049925E-05</v>
+        <v>0</v>
       </c>
       <c r="DI10">
-        <v>0.02110928917911666</v>
+        <v>0</v>
       </c>
       <c r="DJ10">
-        <v>0.05328698571008419</v>
+        <v>0</v>
       </c>
       <c r="DK10">
-        <v>0.0001688855225964309</v>
+        <v>0</v>
       </c>
       <c r="DL10">
-        <v>0.006313043205966085</v>
+        <v>0</v>
       </c>
       <c r="DM10">
-        <v>0.0003768447172348613</v>
+        <v>0</v>
       </c>
       <c r="DN10">
-        <v>0.01534342352680147</v>
+        <v>0</v>
       </c>
       <c r="DO10">
-        <v>0.02285117377682449</v>
+        <v>0</v>
       </c>
       <c r="DP10">
-        <v>0.01357426922869068</v>
+        <v>0</v>
       </c>
       <c r="DQ10">
-        <v>0.0005084686296222498</v>
+        <v>0</v>
       </c>
       <c r="DR10">
-        <v>0.001129770834089307</v>
+        <v>0</v>
       </c>
       <c r="DS10">
-        <v>0.0004870516060418026</v>
+        <v>0</v>
       </c>
       <c r="DT10">
-        <v>0.002676862545404309</v>
+        <v>0</v>
       </c>
       <c r="DU10">
         <v>0</v>
@@ -5584,163 +5584,163 @@
         <v>0</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>0.004365144448590263</v>
       </c>
       <c r="BT2">
-        <v>0</v>
+        <v>0.008115504967625196</v>
       </c>
       <c r="BU2">
-        <v>0</v>
+        <v>0.01104356873973728</v>
       </c>
       <c r="BV2">
-        <v>0</v>
+        <v>0.01361541385152924</v>
       </c>
       <c r="BW2">
-        <v>0</v>
+        <v>0.01588567866092085</v>
       </c>
       <c r="BX2">
-        <v>0</v>
+        <v>0.01783011568028892</v>
       </c>
       <c r="BY2">
-        <v>0</v>
+        <v>0.0183610550766953</v>
       </c>
       <c r="BZ2">
-        <v>0</v>
+        <v>0.01857302945540275</v>
       </c>
       <c r="CA2">
-        <v>0</v>
+        <v>0.01857927686642395</v>
       </c>
       <c r="CB2">
-        <v>0</v>
+        <v>0.0185903394251997</v>
       </c>
       <c r="CC2">
-        <v>0</v>
+        <v>0.01873774282742444</v>
       </c>
       <c r="CD2">
-        <v>0</v>
+        <v>0.01919966958468417</v>
       </c>
       <c r="CE2">
-        <v>0</v>
+        <v>0.02017002877457405</v>
       </c>
       <c r="CF2">
-        <v>0</v>
+        <v>0.0222179976683505</v>
       </c>
       <c r="CG2">
-        <v>0</v>
+        <v>0.02485595736589964</v>
       </c>
       <c r="CH2">
-        <v>0</v>
+        <v>0.02795612112479652</v>
       </c>
       <c r="CI2">
-        <v>0</v>
+        <v>0.03064683400070832</v>
       </c>
       <c r="CJ2">
-        <v>0</v>
+        <v>0.03292282468959731</v>
       </c>
       <c r="CK2">
-        <v>0</v>
+        <v>0.03551635461772962</v>
       </c>
       <c r="CL2">
-        <v>0</v>
+        <v>0.03728115853956691</v>
       </c>
       <c r="CM2">
-        <v>0</v>
+        <v>0.0389277927121809</v>
       </c>
       <c r="CN2">
-        <v>0</v>
+        <v>0.04010908672398518</v>
       </c>
       <c r="CO2">
-        <v>0.01699135750810407</v>
+        <v>0.06337011948444972</v>
       </c>
       <c r="CP2">
-        <v>0.2902091462612491</v>
+        <v>0.4374030907698454</v>
       </c>
       <c r="CQ2">
-        <v>0.4717401096798464</v>
+        <v>0.6859175302491337</v>
       </c>
       <c r="CR2">
-        <v>0.5539111650332803</v>
+        <v>0.798409048930118</v>
       </c>
       <c r="CS2">
-        <v>0.555336449435651</v>
+        <v>0.8003602518967268</v>
       </c>
       <c r="CT2">
-        <v>0.6407054810248949</v>
+        <v>0.9172297745101741</v>
       </c>
       <c r="CU2">
-        <v>0.647367983284693</v>
+        <v>0.9263506869068391</v>
       </c>
       <c r="CV2">
-        <v>0.6766429797088295</v>
+        <v>0.9664279232641773</v>
       </c>
       <c r="CW2">
-        <v>0.6925073795762352</v>
+        <v>0.9881461600127612</v>
       </c>
       <c r="CX2">
-        <v>0.7011661882861118</v>
+        <v>1</v>
       </c>
       <c r="CY2">
-        <v>0.7020380855792228</v>
+        <v>1</v>
       </c>
       <c r="CZ2">
-        <v>0.7020474556018615</v>
+        <v>1</v>
       </c>
       <c r="DA2">
-        <v>0.800220623744855</v>
+        <v>1</v>
       </c>
       <c r="DB2">
-        <v>0.8002378704566716</v>
+        <v>1</v>
       </c>
       <c r="DC2">
-        <v>0.9096442664505829</v>
+        <v>1</v>
       </c>
       <c r="DD2">
-        <v>0.9108214620257152</v>
+        <v>1</v>
       </c>
       <c r="DE2">
-        <v>0.9299724359200227</v>
+        <v>1</v>
       </c>
       <c r="DF2">
-        <v>0.9498226249874623</v>
+        <v>1</v>
       </c>
       <c r="DG2">
-        <v>0.9625482434763463</v>
+        <v>1</v>
       </c>
       <c r="DH2">
-        <v>0.9631108426740796</v>
+        <v>1</v>
       </c>
       <c r="DI2">
-        <v>0.9631503480804674</v>
+        <v>1</v>
       </c>
       <c r="DJ2">
-        <v>0.968342905194858</v>
+        <v>1</v>
       </c>
       <c r="DK2">
-        <v>0.9801323198647249</v>
+        <v>1</v>
       </c>
       <c r="DL2">
-        <v>0.9888603556748339</v>
+        <v>1</v>
       </c>
       <c r="DM2">
-        <v>0.9936801480829212</v>
+        <v>1</v>
       </c>
       <c r="DN2">
-        <v>0.9936859365774114</v>
+        <v>1</v>
       </c>
       <c r="DO2">
-        <v>0.9938424110255332</v>
+        <v>1</v>
       </c>
       <c r="DP2">
-        <v>0.9971554960677473</v>
+        <v>1</v>
       </c>
       <c r="DQ2">
-        <v>0.997161604088232</v>
+        <v>1</v>
       </c>
       <c r="DR2">
-        <v>0.9980206528406632</v>
+        <v>1</v>
       </c>
       <c r="DS2">
-        <v>0.9999668081532589</v>
+        <v>1</v>
       </c>
       <c r="DT2">
         <v>1</v>
@@ -6894,361 +6894,361 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.1150102242699062</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.2024014935754524</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.3249691108322444</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4080525606805726</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4451555867938961</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5166836080566126</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5773110372925935</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.5773110372925935</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.5814870155619053</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.6187632136858047</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.6187632136858047</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.6187632136858047</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.6187632136858047</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.6764491606504867</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.7796005910441718</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.8377533913551773</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.8909080737757115</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.9159825990779956</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.9395160500041203</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.9769784170253839</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.9991456011321114</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.9991456011321114</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO6">
-        <v>0.204629620905071</v>
+        <v>1</v>
       </c>
       <c r="CP6">
-        <v>0.3111526084760011</v>
+        <v>1</v>
       </c>
       <c r="CQ6">
-        <v>0.38914867236541</v>
+        <v>1</v>
       </c>
       <c r="CR6">
-        <v>0.39218129798731</v>
+        <v>1</v>
       </c>
       <c r="CS6">
-        <v>0.4792729452527956</v>
+        <v>1</v>
       </c>
       <c r="CT6">
-        <v>0.4816104868560823</v>
+        <v>1</v>
       </c>
       <c r="CU6">
-        <v>0.4817931317313626</v>
+        <v>1</v>
       </c>
       <c r="CV6">
-        <v>0.5206958926159799</v>
+        <v>1</v>
       </c>
       <c r="CW6">
-        <v>0.5222448871070571</v>
+        <v>1</v>
       </c>
       <c r="CX6">
-        <v>0.5483167791513177</v>
+        <v>1</v>
       </c>
       <c r="CY6">
-        <v>0.5956260131439898</v>
+        <v>1</v>
       </c>
       <c r="CZ6">
-        <v>0.6273751387725846</v>
+        <v>1</v>
       </c>
       <c r="DA6">
-        <v>0.6726778231558571</v>
+        <v>1</v>
       </c>
       <c r="DB6">
-        <v>0.7468786233921314</v>
+        <v>1</v>
       </c>
       <c r="DC6">
-        <v>0.7492726460611425</v>
+        <v>1</v>
       </c>
       <c r="DD6">
-        <v>0.897666260236109</v>
+        <v>1</v>
       </c>
       <c r="DE6">
-        <v>0.921999801142003</v>
+        <v>1</v>
       </c>
       <c r="DF6">
-        <v>0.954994743244838</v>
+        <v>1</v>
       </c>
       <c r="DG6">
-        <v>0.9558397079699966</v>
+        <v>1</v>
       </c>
       <c r="DH6">
-        <v>0.9558466835434182</v>
+        <v>1</v>
       </c>
       <c r="DI6">
-        <v>0.9584571672596989</v>
+        <v>1</v>
       </c>
       <c r="DJ6">
-        <v>0.9588318234275849</v>
+        <v>1</v>
       </c>
       <c r="DK6">
-        <v>0.9588332926008915</v>
+        <v>1</v>
       </c>
       <c r="DL6">
-        <v>0.9596050209204774</v>
+        <v>1</v>
       </c>
       <c r="DM6">
-        <v>0.9603934572091328</v>
+        <v>1</v>
       </c>
       <c r="DN6">
-        <v>0.9639069113333253</v>
+        <v>1</v>
       </c>
       <c r="DO6">
-        <v>0.9737573584628451</v>
+        <v>1</v>
       </c>
       <c r="DP6">
-        <v>0.9835033087175503</v>
+        <v>1</v>
       </c>
       <c r="DQ6">
-        <v>0.9937987278424432</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0.9971881468882899</v>
+        <v>1</v>
       </c>
       <c r="DS6">
-        <v>0.9978929629872565</v>
+        <v>1</v>
       </c>
       <c r="DT6">
         <v>1</v>
@@ -8441,322 +8441,322 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.09770962594592442</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.2081892314916318</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>0.2545715645073598</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>0.2800186104958228</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.3206505840899814</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>0.3383270741715543</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>0.3391082092286679</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>0.3404648873585042</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.342179028651355</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>0.3426843918029015</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>0.3432245729547295</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>0.3461358393083016</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>0.3518922180201701</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>0.3644362994748321</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>0.3871882572798093</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>0.3998844234981563</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>0.4127335903157843</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>0.4227984611222657</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>0.4297401347060113</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>0.4675036518613215</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>0.5693488072190553</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>0.6801870147458473</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>0.7375932962773731</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>0.7863886541266957</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>0.803849144671462</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>0.805480241273316</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>0.8105356207900239</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>0.8176850992016113</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>0.8339941708995399</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>0.859225715249216</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>0.8991445076334182</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO10">
-        <v>0.06313791292274543</v>
+        <v>1</v>
       </c>
       <c r="CP10">
-        <v>0.2745382884052366</v>
+        <v>1</v>
       </c>
       <c r="CQ10">
-        <v>0.4770105435955002</v>
+        <v>1</v>
       </c>
       <c r="CR10">
-        <v>0.5195624826918144</v>
+        <v>1</v>
       </c>
       <c r="CS10">
-        <v>0.5198888622345486</v>
+        <v>1</v>
       </c>
       <c r="CT10">
-        <v>0.527122238958469</v>
+        <v>1</v>
       </c>
       <c r="CU10">
-        <v>0.5696489291309452</v>
+        <v>1</v>
       </c>
       <c r="CV10">
-        <v>0.5793280116180215</v>
+        <v>1</v>
       </c>
       <c r="CW10">
-        <v>0.5799909306590909</v>
+        <v>1</v>
       </c>
       <c r="CX10">
-        <v>0.6474448379029093</v>
+        <v>1</v>
       </c>
       <c r="CY10">
-        <v>0.6718977062511401</v>
+        <v>1</v>
       </c>
       <c r="CZ10">
-        <v>0.6911102583146017</v>
+        <v>1</v>
       </c>
       <c r="DA10">
-        <v>0.7714461390032648</v>
+        <v>1</v>
       </c>
       <c r="DB10">
-        <v>0.7732150450175953</v>
+        <v>1</v>
       </c>
       <c r="DC10">
-        <v>0.814017775009895</v>
+        <v>1</v>
       </c>
       <c r="DD10">
-        <v>0.8143573494202491</v>
+        <v>1</v>
       </c>
       <c r="DE10">
-        <v>0.8225979220526489</v>
+        <v>1</v>
       </c>
       <c r="DF10">
-        <v>0.8503653519086454</v>
+        <v>1</v>
       </c>
       <c r="DG10">
-        <v>0.8621555344973472</v>
+        <v>1</v>
       </c>
       <c r="DH10">
-        <v>0.8621739315175276</v>
+        <v>1</v>
       </c>
       <c r="DI10">
-        <v>0.8832832206966443</v>
+        <v>1</v>
       </c>
       <c r="DJ10">
-        <v>0.9365702064067285</v>
+        <v>1</v>
       </c>
       <c r="DK10">
-        <v>0.9367390919293249</v>
+        <v>1</v>
       </c>
       <c r="DL10">
-        <v>0.943052135135291</v>
+        <v>1</v>
       </c>
       <c r="DM10">
-        <v>0.9434289798525258</v>
+        <v>1</v>
       </c>
       <c r="DN10">
-        <v>0.9587724033793273</v>
+        <v>1</v>
       </c>
       <c r="DO10">
-        <v>0.9816235771561518</v>
+        <v>1</v>
       </c>
       <c r="DP10">
-        <v>0.9951978463848424</v>
+        <v>1</v>
       </c>
       <c r="DQ10">
-        <v>0.9957063150144647</v>
+        <v>1</v>
       </c>
       <c r="DR10">
-        <v>0.996836085848554</v>
+        <v>1</v>
       </c>
       <c r="DS10">
-        <v>0.9973231374545958</v>
+        <v>1</v>
       </c>
       <c r="DT10">
         <v>1</v>
@@ -9204,16 +9204,16 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0389277927121809</v>
       </c>
       <c r="F2">
-        <v>0.5539111650332803</v>
+        <v>0.6859175302491337</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -9368,19 +9368,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5206958926159799</v>
+        <v>0.5166836080566126</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -9532,19 +9532,19 @@
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5195624826918144</v>
+        <v>0.5693488072190553</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="H10">
         <v>16</v>
@@ -9668,19 +9668,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0389277927121809</v>
       </c>
       <c r="F2">
-        <v>0.7011661882861118</v>
+        <v>0.798409048930118</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -9832,19 +9832,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7468786233921314</v>
+        <v>0.7796005910441718</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -9996,19 +9996,19 @@
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7714461390032648</v>
+        <v>0.7375932962773731</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H10">
         <v>16</v>
@@ -10132,19 +10132,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0389277927121809</v>
       </c>
       <c r="F2">
-        <v>0.800220623744855</v>
+        <v>0.8003602518967268</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -10296,16 +10296,16 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.897666260236109</v>
+        <v>0.8377533913551773</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -10460,19 +10460,19 @@
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.814017775009895</v>
+        <v>0.803849144671462</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H10">
         <v>16</v>
@@ -10596,19 +10596,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0389277927121809</v>
       </c>
       <c r="F2">
-        <v>0.9096442664505829</v>
+        <v>0.9172297745101741</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -10760,19 +10760,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.921999801142003</v>
+        <v>0.9159825990779956</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -10924,19 +10924,19 @@
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9365702064067285</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>16</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/16_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/16_455-55R22.xlsx
@@ -1424,169 +1424,169 @@
         <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.004365144448590263</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.003750360519034934</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.002928063772112081</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.002571845111791966</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.002270264809391607</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.001944437019368071</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0005309393964063848</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0002119743787074473</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>6.247411021193219E-06</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>1.106255877575338E-05</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.0001474034022247366</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0004619267572597357</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0009703591898898814</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.002047968893776451</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.002637959697549136</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.003100163758896887</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.002690712875911795</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.002275990688888988</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.002593529928132318</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.001764803921837284</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.001646634172613995</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.00118129401180428</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.02326103276046454</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.3740329712853957</v>
+        <v>0.2777749950676404</v>
       </c>
       <c r="CQ2">
-        <v>0.2485144394792883</v>
+        <v>0.1845588557697616</v>
       </c>
       <c r="CR2">
-        <v>0.1124915186809843</v>
+        <v>0.08354164858615995</v>
       </c>
       <c r="CS2">
-        <v>0.001951202966608811</v>
+        <v>0.001449057799806031</v>
       </c>
       <c r="CT2">
-        <v>0.1168695226134473</v>
+        <v>0.0867929662883582</v>
       </c>
       <c r="CU2">
-        <v>0.009120912396665053</v>
+        <v>0.006773631178260083</v>
       </c>
       <c r="CV2">
-        <v>0.04007723635733815</v>
+        <v>0.02976329624959706</v>
       </c>
       <c r="CW2">
-        <v>0.02171823674858401</v>
+        <v>0.01612901420156518</v>
       </c>
       <c r="CX2">
-        <v>0.01185383998723882</v>
+        <v>0.008803235534750374</v>
       </c>
       <c r="CY2">
-        <v>0</v>
+        <v>0.0008864403280571996</v>
       </c>
       <c r="CZ2">
-        <v>0</v>
+        <v>9.526312339178289E-06</v>
       </c>
       <c r="DA2">
-        <v>0</v>
+        <v>0.09981067272795112</v>
       </c>
       <c r="DB2">
-        <v>0</v>
+        <v>1.753438277812345E-05</v>
       </c>
       <c r="DC2">
-        <v>0</v>
+        <v>0.1112312680893374</v>
       </c>
       <c r="DD2">
-        <v>0</v>
+        <v>0.001196830911223999</v>
       </c>
       <c r="DE2">
-        <v>0</v>
+        <v>0.01947040748447798</v>
       </c>
       <c r="DF2">
-        <v>0</v>
+        <v>0.02018128539676316</v>
       </c>
       <c r="DG2">
-        <v>0</v>
+        <v>0.01293787871248827</v>
       </c>
       <c r="DH2">
-        <v>0</v>
+        <v>0.0005719832156194417</v>
       </c>
       <c r="DI2">
-        <v>0</v>
+        <v>4.016434696506079E-05</v>
       </c>
       <c r="DJ2">
-        <v>0</v>
+        <v>0.00527916770507747</v>
       </c>
       <c r="DK2">
-        <v>0</v>
+        <v>0.01198605924130177</v>
       </c>
       <c r="DL2">
-        <v>0</v>
+        <v>0.008873617326189961</v>
       </c>
       <c r="DM2">
-        <v>0</v>
+        <v>0.004900185374068498</v>
       </c>
       <c r="DN2">
-        <v>0</v>
+        <v>5.885045171596832E-06</v>
       </c>
       <c r="DO2">
-        <v>0</v>
+        <v>0.0001590844038873943</v>
       </c>
       <c r="DP2">
-        <v>0</v>
+        <v>0.0033683464955176</v>
       </c>
       <c r="DQ2">
-        <v>0</v>
+        <v>6.209900781851444E-06</v>
       </c>
       <c r="DR2">
-        <v>0</v>
+        <v>0.0008733774768416141</v>
       </c>
       <c r="DS2">
-        <v>0</v>
+        <v>0.001978616710222953</v>
       </c>
       <c r="DT2">
-        <v>0</v>
+        <v>3.374547867805136E-05</v>
       </c>
       <c r="DU2">
-        <v>0</v>
+        <v>0.0005950122583612993</v>
       </c>
     </row>
     <row r="3" spans="1:125">
@@ -2734,34 +2734,34 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1150102242699062</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08739126930554622</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.122567617256792</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.08308344984832823</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.03710302611332345</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07152802126271661</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.06062742923598087</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.004175978269311796</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0372761981238994</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -2773,34 +2773,34 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.05768594696468204</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.1031514303936851</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.05815280031100558</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.05315468242053407</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.02507452530228415</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.02353345092612466</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.03746236702126358</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.02216718410672752</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0008543988678886234</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -2998,100 +2998,100 @@
         <v>0</v>
       </c>
       <c r="CO6">
-        <v>0</v>
+        <v>0.204629620905071</v>
       </c>
       <c r="CP6">
-        <v>0</v>
+        <v>0.1065229875709301</v>
       </c>
       <c r="CQ6">
-        <v>0</v>
+        <v>0.0779960638894089</v>
       </c>
       <c r="CR6">
-        <v>0</v>
+        <v>0.003032625621900035</v>
       </c>
       <c r="CS6">
-        <v>0</v>
+        <v>0.08709164726548557</v>
       </c>
       <c r="CT6">
-        <v>0</v>
+        <v>0.002337541603286713</v>
       </c>
       <c r="CU6">
-        <v>0</v>
+        <v>0.0001826448752803689</v>
       </c>
       <c r="CV6">
-        <v>0</v>
+        <v>0.03890276088461729</v>
       </c>
       <c r="CW6">
-        <v>0</v>
+        <v>0.001548994491077203</v>
       </c>
       <c r="CX6">
-        <v>0</v>
+        <v>0.02607189204426064</v>
       </c>
       <c r="CY6">
-        <v>0</v>
+        <v>0.04730923399267203</v>
       </c>
       <c r="CZ6">
-        <v>0</v>
+        <v>0.0317491256285948</v>
       </c>
       <c r="DA6">
-        <v>0</v>
+        <v>0.04530268438327253</v>
       </c>
       <c r="DB6">
-        <v>0</v>
+        <v>0.07420080023627429</v>
       </c>
       <c r="DC6">
-        <v>0</v>
+        <v>0.002394022669011116</v>
       </c>
       <c r="DD6">
-        <v>0</v>
+        <v>0.1483936141749665</v>
       </c>
       <c r="DE6">
-        <v>0</v>
+        <v>0.02433354090589404</v>
       </c>
       <c r="DF6">
-        <v>0</v>
+        <v>0.03299494210283503</v>
       </c>
       <c r="DG6">
-        <v>0</v>
+        <v>0.0008449647251586037</v>
       </c>
       <c r="DH6">
-        <v>0</v>
+        <v>6.975573421540861E-06</v>
       </c>
       <c r="DI6">
-        <v>0</v>
+        <v>0.00261048371628067</v>
       </c>
       <c r="DJ6">
-        <v>0</v>
+        <v>0.0003746561678860494</v>
       </c>
       <c r="DK6">
-        <v>0</v>
+        <v>1.469173306567218E-06</v>
       </c>
       <c r="DL6">
-        <v>0</v>
+        <v>0.0007717283195859649</v>
       </c>
       <c r="DM6">
-        <v>0</v>
+        <v>0.0007884362886553916</v>
       </c>
       <c r="DN6">
-        <v>0</v>
+        <v>0.003513454124192494</v>
       </c>
       <c r="DO6">
-        <v>0</v>
+        <v>0.009850447129519803</v>
       </c>
       <c r="DP6">
-        <v>0</v>
+        <v>0.009745950254705309</v>
       </c>
       <c r="DQ6">
-        <v>0</v>
+        <v>0.01029541912489287</v>
       </c>
       <c r="DR6">
-        <v>0</v>
+        <v>0.003389419045846826</v>
       </c>
       <c r="DS6">
-        <v>0</v>
+        <v>0.0007048160989665559</v>
       </c>
       <c r="DT6">
-        <v>0</v>
+        <v>0.002107037012743514</v>
       </c>
       <c r="DU6">
         <v>0</v>
@@ -4281,100 +4281,100 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.09770962594592442</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0.1104796055457074</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.04638233301572807</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>0.02544704598846298</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0.04063197359415862</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.0176764900815729</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0.0007811350571135212</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.001356678129836333</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.001714141292850864</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.0005053631515464564</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.0005401811518280054</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.002911266353572065</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.00575637871186847</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.01254408145466205</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.02275195780497719</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>0.01269616621834701</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.01284916681762801</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.01006487080648138</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.006941673583745612</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>0.03776351715531018</v>
+        <v>0</v>
       </c>
       <c r="AL10">
-        <v>0.1018451553577339</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>0.110838207526792</v>
+        <v>0</v>
       </c>
       <c r="AN10">
-        <v>0.05740628153152583</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>0.04879535784932253</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.01746049054476624</v>
+        <v>0</v>
       </c>
       <c r="AQ10">
-        <v>0.001631096601854035</v>
+        <v>0</v>
       </c>
       <c r="AR10">
-        <v>0.005055379516707932</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.007149478411587253</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>0.01630907169792858</v>
+        <v>0</v>
       </c>
       <c r="AU10">
-        <v>0.02523154434967612</v>
+        <v>0</v>
       </c>
       <c r="AV10">
-        <v>0.03991879238420228</v>
+        <v>0</v>
       </c>
       <c r="AW10">
-        <v>0.1008554923665817</v>
+        <v>0</v>
       </c>
       <c r="AX10">
         <v>0</v>
@@ -4506,100 +4506,100 @@
         <v>0</v>
       </c>
       <c r="CO10">
-        <v>0</v>
+        <v>0.06313791292274543</v>
       </c>
       <c r="CP10">
-        <v>0</v>
+        <v>0.2114003754824912</v>
       </c>
       <c r="CQ10">
-        <v>0</v>
+        <v>0.2024722551902636</v>
       </c>
       <c r="CR10">
-        <v>0</v>
+        <v>0.04255193909631413</v>
       </c>
       <c r="CS10">
-        <v>0</v>
+        <v>0.0003263795427341466</v>
       </c>
       <c r="CT10">
-        <v>0</v>
+        <v>0.007233376723920487</v>
       </c>
       <c r="CU10">
-        <v>0</v>
+        <v>0.04252669017247628</v>
       </c>
       <c r="CV10">
-        <v>0</v>
+        <v>0.009679082487076305</v>
       </c>
       <c r="CW10">
-        <v>0</v>
+        <v>0.0006629190410694133</v>
       </c>
       <c r="CX10">
-        <v>0</v>
+        <v>0.0674539072438184</v>
       </c>
       <c r="CY10">
-        <v>0</v>
+        <v>0.02445286834823083</v>
       </c>
       <c r="CZ10">
-        <v>0</v>
+        <v>0.01921255206346161</v>
       </c>
       <c r="DA10">
-        <v>0</v>
+        <v>0.08033588068866306</v>
       </c>
       <c r="DB10">
-        <v>0</v>
+        <v>0.001768906014330577</v>
       </c>
       <c r="DC10">
-        <v>0</v>
+        <v>0.04080272999229972</v>
       </c>
       <c r="DD10">
-        <v>0</v>
+        <v>0.0003395744103539953</v>
       </c>
       <c r="DE10">
-        <v>0</v>
+        <v>0.00824057263239982</v>
       </c>
       <c r="DF10">
-        <v>0</v>
+        <v>0.02776742985599643</v>
       </c>
       <c r="DG10">
-        <v>0</v>
+        <v>0.0117901825887018</v>
       </c>
       <c r="DH10">
-        <v>0</v>
+        <v>1.839702018049925E-05</v>
       </c>
       <c r="DI10">
-        <v>0</v>
+        <v>0.02110928917911666</v>
       </c>
       <c r="DJ10">
-        <v>0</v>
+        <v>0.05328698571008419</v>
       </c>
       <c r="DK10">
-        <v>0</v>
+        <v>0.0001688855225964309</v>
       </c>
       <c r="DL10">
-        <v>0</v>
+        <v>0.006313043205966085</v>
       </c>
       <c r="DM10">
-        <v>0</v>
+        <v>0.0003768447172348613</v>
       </c>
       <c r="DN10">
-        <v>0</v>
+        <v>0.01534342352680147</v>
       </c>
       <c r="DO10">
-        <v>0</v>
+        <v>0.02285117377682449</v>
       </c>
       <c r="DP10">
-        <v>0</v>
+        <v>0.01357426922869068</v>
       </c>
       <c r="DQ10">
-        <v>0</v>
+        <v>0.0005084686296222498</v>
       </c>
       <c r="DR10">
-        <v>0</v>
+        <v>0.001129770834089307</v>
       </c>
       <c r="DS10">
-        <v>0</v>
+        <v>0.0004870516060418026</v>
       </c>
       <c r="DT10">
-        <v>0</v>
+        <v>0.002676862545404309</v>
       </c>
       <c r="DU10">
         <v>0</v>
@@ -5584,166 +5584,166 @@
         <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.004365144448590263</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.008115504967625196</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.01104356873973728</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.01361541385152924</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.01588567866092085</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.01783011568028892</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0183610550766953</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.01857302945540275</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.01857927686642395</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0185903394251997</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.01873774282742444</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.01919966958468417</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.02017002877457405</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0222179976683505</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.02485595736589964</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.02795612112479652</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.03064683400070832</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.03292282468959731</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.03551635461772962</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.03728115853956691</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0389277927121809</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.04010908672398518</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.06337011948444972</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.4374030907698454</v>
+        <v>0.2777749950676404</v>
       </c>
       <c r="CQ2">
-        <v>0.6859175302491337</v>
+        <v>0.462333850837402</v>
       </c>
       <c r="CR2">
-        <v>0.798409048930118</v>
+        <v>0.5458754994235619</v>
       </c>
       <c r="CS2">
-        <v>0.8003602518967268</v>
+        <v>0.547324557223368</v>
       </c>
       <c r="CT2">
-        <v>0.9172297745101741</v>
+        <v>0.6341175235117262</v>
       </c>
       <c r="CU2">
-        <v>0.9263506869068391</v>
+        <v>0.6408911546899864</v>
       </c>
       <c r="CV2">
-        <v>0.9664279232641773</v>
+        <v>0.6706544509395834</v>
       </c>
       <c r="CW2">
-        <v>0.9881461600127612</v>
+        <v>0.6867834651411486</v>
       </c>
       <c r="CX2">
-        <v>1</v>
+        <v>0.695586700675899</v>
       </c>
       <c r="CY2">
-        <v>1</v>
+        <v>0.6964731410039562</v>
       </c>
       <c r="CZ2">
-        <v>1</v>
+        <v>0.6964826673162954</v>
       </c>
       <c r="DA2">
-        <v>1</v>
+        <v>0.7962933400442465</v>
       </c>
       <c r="DB2">
-        <v>1</v>
+        <v>0.7963108744270245</v>
       </c>
       <c r="DC2">
-        <v>1</v>
+        <v>0.907542142516362</v>
       </c>
       <c r="DD2">
-        <v>1</v>
+        <v>0.908738973427586</v>
       </c>
       <c r="DE2">
-        <v>1</v>
+        <v>0.9282093809120641</v>
       </c>
       <c r="DF2">
-        <v>1</v>
+        <v>0.9483906663088272</v>
       </c>
       <c r="DG2">
-        <v>1</v>
+        <v>0.9613285450213155</v>
       </c>
       <c r="DH2">
-        <v>1</v>
+        <v>0.9619005282369349</v>
       </c>
       <c r="DI2">
-        <v>1</v>
+        <v>0.9619406925839</v>
       </c>
       <c r="DJ2">
-        <v>1</v>
+        <v>0.9672198602889774</v>
       </c>
       <c r="DK2">
-        <v>1</v>
+        <v>0.9792059195302792</v>
       </c>
       <c r="DL2">
-        <v>1</v>
+        <v>0.9880795368564692</v>
       </c>
       <c r="DM2">
-        <v>1</v>
+        <v>0.9929797222305377</v>
       </c>
       <c r="DN2">
-        <v>1</v>
+        <v>0.9929856072757093</v>
       </c>
       <c r="DO2">
-        <v>1</v>
+        <v>0.9931446916795966</v>
       </c>
       <c r="DP2">
-        <v>1</v>
+        <v>0.9965130381751143</v>
       </c>
       <c r="DQ2">
-        <v>1</v>
+        <v>0.9965192480758961</v>
       </c>
       <c r="DR2">
-        <v>1</v>
+        <v>0.9973926255527377</v>
       </c>
       <c r="DS2">
-        <v>1</v>
+        <v>0.9993712422629606</v>
       </c>
       <c r="DT2">
-        <v>1</v>
+        <v>0.9994049877416387</v>
       </c>
       <c r="DU2">
         <v>1</v>
@@ -6894,361 +6894,361 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1150102242699062</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2024014935754524</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3249691108322444</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.4080525606805726</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4451555867938961</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5166836080566126</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5773110372925935</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5773110372925935</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5814870155619053</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6187632136858047</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6187632136858047</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6187632136858047</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.6187632136858047</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.6764491606504867</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.7796005910441718</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.8377533913551773</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.8909080737757115</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.9159825990779956</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.9395160500041203</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.9769784170253839</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.9991456011321114</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.9991456011321114</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>1</v>
+        <v>0.204629620905071</v>
       </c>
       <c r="CP6">
-        <v>1</v>
+        <v>0.3111526084760011</v>
       </c>
       <c r="CQ6">
-        <v>1</v>
+        <v>0.38914867236541</v>
       </c>
       <c r="CR6">
-        <v>1</v>
+        <v>0.39218129798731</v>
       </c>
       <c r="CS6">
-        <v>1</v>
+        <v>0.4792729452527956</v>
       </c>
       <c r="CT6">
-        <v>1</v>
+        <v>0.4816104868560823</v>
       </c>
       <c r="CU6">
-        <v>1</v>
+        <v>0.4817931317313626</v>
       </c>
       <c r="CV6">
-        <v>1</v>
+        <v>0.5206958926159799</v>
       </c>
       <c r="CW6">
-        <v>1</v>
+        <v>0.5222448871070571</v>
       </c>
       <c r="CX6">
-        <v>1</v>
+        <v>0.5483167791513177</v>
       </c>
       <c r="CY6">
-        <v>1</v>
+        <v>0.5956260131439898</v>
       </c>
       <c r="CZ6">
-        <v>1</v>
+        <v>0.6273751387725846</v>
       </c>
       <c r="DA6">
-        <v>1</v>
+        <v>0.6726778231558571</v>
       </c>
       <c r="DB6">
-        <v>1</v>
+        <v>0.7468786233921314</v>
       </c>
       <c r="DC6">
-        <v>1</v>
+        <v>0.7492726460611425</v>
       </c>
       <c r="DD6">
-        <v>1</v>
+        <v>0.897666260236109</v>
       </c>
       <c r="DE6">
-        <v>1</v>
+        <v>0.921999801142003</v>
       </c>
       <c r="DF6">
-        <v>1</v>
+        <v>0.954994743244838</v>
       </c>
       <c r="DG6">
-        <v>1</v>
+        <v>0.9558397079699966</v>
       </c>
       <c r="DH6">
-        <v>1</v>
+        <v>0.9558466835434182</v>
       </c>
       <c r="DI6">
-        <v>1</v>
+        <v>0.9584571672596989</v>
       </c>
       <c r="DJ6">
-        <v>1</v>
+        <v>0.9588318234275849</v>
       </c>
       <c r="DK6">
-        <v>1</v>
+        <v>0.9588332926008915</v>
       </c>
       <c r="DL6">
-        <v>1</v>
+        <v>0.9596050209204774</v>
       </c>
       <c r="DM6">
-        <v>1</v>
+        <v>0.9603934572091328</v>
       </c>
       <c r="DN6">
-        <v>1</v>
+        <v>0.9639069113333253</v>
       </c>
       <c r="DO6">
-        <v>1</v>
+        <v>0.9737573584628451</v>
       </c>
       <c r="DP6">
-        <v>1</v>
+        <v>0.9835033087175503</v>
       </c>
       <c r="DQ6">
-        <v>1</v>
+        <v>0.9937987278424432</v>
       </c>
       <c r="DR6">
-        <v>1</v>
+        <v>0.9971881468882899</v>
       </c>
       <c r="DS6">
-        <v>1</v>
+        <v>0.9978929629872565</v>
       </c>
       <c r="DT6">
         <v>1</v>
@@ -8441,322 +8441,322 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.09770962594592442</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0.2081892314916318</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.2545715645073598</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>0.2800186104958228</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0.3206505840899814</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.3383270741715543</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0.3391082092286679</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.3404648873585042</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.342179028651355</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.3426843918029015</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.3432245729547295</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.3461358393083016</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.3518922180201701</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.3644362994748321</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.3871882572798093</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>0.3998844234981563</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.4127335903157843</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.4227984611222657</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.4297401347060113</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>0.4675036518613215</v>
+        <v>0</v>
       </c>
       <c r="AL10">
-        <v>0.5693488072190553</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>0.6801870147458473</v>
+        <v>0</v>
       </c>
       <c r="AN10">
-        <v>0.7375932962773731</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>0.7863886541266957</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.803849144671462</v>
+        <v>0</v>
       </c>
       <c r="AQ10">
-        <v>0.805480241273316</v>
+        <v>0</v>
       </c>
       <c r="AR10">
-        <v>0.8105356207900239</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.8176850992016113</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>0.8339941708995399</v>
+        <v>0</v>
       </c>
       <c r="AU10">
-        <v>0.859225715249216</v>
+        <v>0</v>
       </c>
       <c r="AV10">
-        <v>0.8991445076334182</v>
+        <v>0</v>
       </c>
       <c r="AW10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO10">
-        <v>1</v>
+        <v>0.06313791292274543</v>
       </c>
       <c r="CP10">
-        <v>1</v>
+        <v>0.2745382884052366</v>
       </c>
       <c r="CQ10">
-        <v>1</v>
+        <v>0.4770105435955002</v>
       </c>
       <c r="CR10">
-        <v>1</v>
+        <v>0.5195624826918144</v>
       </c>
       <c r="CS10">
-        <v>1</v>
+        <v>0.5198888622345486</v>
       </c>
       <c r="CT10">
-        <v>1</v>
+        <v>0.527122238958469</v>
       </c>
       <c r="CU10">
-        <v>1</v>
+        <v>0.5696489291309452</v>
       </c>
       <c r="CV10">
-        <v>1</v>
+        <v>0.5793280116180215</v>
       </c>
       <c r="CW10">
-        <v>1</v>
+        <v>0.5799909306590909</v>
       </c>
       <c r="CX10">
-        <v>1</v>
+        <v>0.6474448379029093</v>
       </c>
       <c r="CY10">
-        <v>1</v>
+        <v>0.6718977062511401</v>
       </c>
       <c r="CZ10">
-        <v>1</v>
+        <v>0.6911102583146017</v>
       </c>
       <c r="DA10">
-        <v>1</v>
+        <v>0.7714461390032648</v>
       </c>
       <c r="DB10">
-        <v>1</v>
+        <v>0.7732150450175953</v>
       </c>
       <c r="DC10">
-        <v>1</v>
+        <v>0.814017775009895</v>
       </c>
       <c r="DD10">
-        <v>1</v>
+        <v>0.8143573494202491</v>
       </c>
       <c r="DE10">
-        <v>1</v>
+        <v>0.8225979220526489</v>
       </c>
       <c r="DF10">
-        <v>1</v>
+        <v>0.8503653519086454</v>
       </c>
       <c r="DG10">
-        <v>1</v>
+        <v>0.8621555344973472</v>
       </c>
       <c r="DH10">
-        <v>1</v>
+        <v>0.8621739315175276</v>
       </c>
       <c r="DI10">
-        <v>1</v>
+        <v>0.8832832206966443</v>
       </c>
       <c r="DJ10">
-        <v>1</v>
+        <v>0.9365702064067285</v>
       </c>
       <c r="DK10">
-        <v>1</v>
+        <v>0.9367390919293249</v>
       </c>
       <c r="DL10">
-        <v>1</v>
+        <v>0.943052135135291</v>
       </c>
       <c r="DM10">
-        <v>1</v>
+        <v>0.9434289798525258</v>
       </c>
       <c r="DN10">
-        <v>1</v>
+        <v>0.9587724033793273</v>
       </c>
       <c r="DO10">
-        <v>1</v>
+        <v>0.9816235771561518</v>
       </c>
       <c r="DP10">
-        <v>1</v>
+        <v>0.9951978463848424</v>
       </c>
       <c r="DQ10">
-        <v>1</v>
+        <v>0.9957063150144647</v>
       </c>
       <c r="DR10">
-        <v>1</v>
+        <v>0.996836085848554</v>
       </c>
       <c r="DS10">
-        <v>1</v>
+        <v>0.9973231374545958</v>
       </c>
       <c r="DT10">
         <v>1</v>
@@ -9204,16 +9204,16 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2">
-        <v>0.0389277927121809</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6859175302491337</v>
+        <v>0.5458754994235619</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -9368,19 +9368,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="D6">
+        <v>99</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.5206958926159799</v>
+      </c>
+      <c r="G6">
         <v>9</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.5166836080566126</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -9532,19 +9532,19 @@
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="D10">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5693488072190553</v>
+        <v>0.5195624826918144</v>
       </c>
       <c r="G10">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H10">
         <v>16</v>
@@ -9668,19 +9668,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E2">
-        <v>0.0389277927121809</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.798409048930118</v>
+        <v>0.7962933400442465</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -9832,19 +9832,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7796005910441718</v>
+        <v>0.7468786233921314</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -9996,19 +9996,19 @@
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7375932962773731</v>
+        <v>0.7714461390032648</v>
       </c>
       <c r="G10">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H10">
         <v>16</v>
@@ -10132,19 +10132,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>0.0389277927121809</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8003602518967268</v>
+        <v>0.907542142516362</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -10296,16 +10296,16 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8377533913551773</v>
+        <v>0.897666260236109</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -10460,19 +10460,19 @@
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="D10">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.803849144671462</v>
+        <v>0.814017775009895</v>
       </c>
       <c r="G10">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H10">
         <v>16</v>
@@ -10596,19 +10596,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>0.0389277927121809</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9172297745101741</v>
+        <v>0.907542142516362</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -10760,19 +10760,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9159825990779956</v>
+        <v>0.921999801142003</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -10924,19 +10924,19 @@
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="D10">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.9365702064067285</v>
       </c>
       <c r="G10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H10">
         <v>16</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/16_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/16_455-55R22.xlsx
@@ -426,40 +426,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>455-55R22.5</t>
@@ -469,9 +472,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -1493,100 +1493,100 @@
         <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.2777749950676404</v>
+        <v>0.3742569842391381</v>
       </c>
       <c r="CQ2">
-        <v>0.1845588557697616</v>
+        <v>0.2331717662537217</v>
       </c>
       <c r="CR2">
-        <v>0.08354164858615995</v>
+        <v>0.08027941517454835</v>
       </c>
       <c r="CS2">
-        <v>0.001449057799806031</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.0867929662883582</v>
+        <v>0.08520037489471692</v>
       </c>
       <c r="CU2">
-        <v>0.006773631178260083</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.02976329624959706</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.01612901420156518</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.008803235534750374</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.0008864403280571996</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>9.526312339178289E-06</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.09981067272795112</v>
+        <v>0.104903035448284</v>
       </c>
       <c r="DB2">
-        <v>1.753438277812345E-05</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.1112312680893374</v>
+        <v>0.1221884239895909</v>
       </c>
       <c r="DD2">
-        <v>0.001196830911223999</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.01947040748447798</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.02018128539676316</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.01293787871248827</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.0005719832156194417</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>4.016434696506079E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.00527916770507747</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.01198605924130177</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.008873617326189961</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.004900185374068498</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>5.885045171596832E-06</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.0001590844038873943</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.0033683464955176</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>6.209900781851444E-06</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.0008733774768416141</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.001978616710222953</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>3.374547867805136E-05</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.0005950122583612993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:125">
@@ -1867,100 +1867,100 @@
         <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.3174054926966229</v>
+        <v>0.4883356517227568</v>
       </c>
       <c r="CP3">
-        <v>0.05675356403790685</v>
+        <v>0.04545744414198966</v>
       </c>
       <c r="CQ3">
-        <v>0.1629420095453708</v>
+        <v>0.2258840715379079</v>
       </c>
       <c r="CR3">
-        <v>0.0008683479679557462</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.0510281084173488</v>
+        <v>0.03572922330792836</v>
       </c>
       <c r="CT3">
-        <v>0.02167165030179083</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.03359362555376066</v>
+        <v>0.006105991435228701</v>
       </c>
       <c r="CV3">
-        <v>0.001725754093726103</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.0005220354549940151</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.03373945075111279</v>
+        <v>0.006353765554360519</v>
       </c>
       <c r="CY3">
-        <v>0.0004223109646060923</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.07370494859757172</v>
+        <v>0.074259835317182</v>
       </c>
       <c r="DA3">
-        <v>0.05791903332165954</v>
+        <v>0.04743771319288421</v>
       </c>
       <c r="DB3">
-        <v>0.05566399454080313</v>
+        <v>0.04360613773349654</v>
       </c>
       <c r="DC3">
-        <v>0.01067676808398423</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.04579064945868619</v>
+        <v>0.02683016605626523</v>
       </c>
       <c r="DE3">
-        <v>0.005232042851456229</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.01961199432433328</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>3.945760835855236E-05</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>3.921054517724658E-05</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.01190638064503595</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>1.465468947629224E-05</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.0007371309977138481</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.002763095074059737</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.001875488230263878</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.005971300290296577</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.01343028006993579</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.005777967098540032</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.002832806181601591</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.0001232524517809839</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.002646541392433586</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.002570653761636178</v>
+        <v>0</v>
       </c>
       <c r="DU3">
         <v>0</v>
@@ -2244,100 +2244,100 @@
         <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.04933304196034644</v>
+        <v>0.03528593666564237</v>
       </c>
       <c r="CP4">
-        <v>0.06519825886470414</v>
+        <v>0.06424253025407388</v>
       </c>
       <c r="CQ4">
-        <v>0.274937184957743</v>
+        <v>0.4470500820929673</v>
       </c>
       <c r="CR4">
-        <v>0.02928308427174539</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.02106043291300545</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.03550310646526371</v>
+        <v>0.01004406169478477</v>
       </c>
       <c r="CU4">
-        <v>0.0005239612799729439</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.03698200002038628</v>
+        <v>0.0127432822534695</v>
       </c>
       <c r="CW4">
-        <v>0.00275179591386885</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.02865211613836827</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.01081812784646178</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.02113396886766475</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.1714383272175795</v>
+        <v>0.258147883117949</v>
       </c>
       <c r="DB4">
-        <v>0.007767951074856567</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.06386007094338363</v>
+        <v>0.06180012029420862</v>
       </c>
       <c r="DD4">
-        <v>0.09064453116614585</v>
+        <v>0.1106861036269045</v>
       </c>
       <c r="DE4">
-        <v>0.00912957427787622</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.0210455182252713</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.003084766032510773</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.0002566955026163376</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.0001387129872851857</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.001604532093649081</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>3.663880486976051E-05</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.001638715481688613</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.0009799407702415423</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.008506311344436603</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.009430595817444862</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.01603783828257422</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.0125737749360231</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.00205189950894491</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.0001295885137803504</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.003466937519290601</v>
+        <v>0</v>
       </c>
       <c r="DU4">
         <v>0</v>
@@ -2624,100 +2624,100 @@
         <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.3668019669958067</v>
+        <v>0.5877934817335663</v>
       </c>
       <c r="CQ5">
-        <v>0.01526132641210515</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.1822144077978035</v>
+        <v>0.2656476074873926</v>
       </c>
       <c r="CS5">
-        <v>8.601074242784302E-05</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.04356466096327229</v>
+        <v>0.02367331570909882</v>
       </c>
       <c r="CU5">
-        <v>0.02455853118638007</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.02131187710816327</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.003070754629100855</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>4.003206260807045E-06</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.03294942790591329</v>
+        <v>0.00514740015743584</v>
       </c>
       <c r="CZ5">
-        <v>0.0002780561853225757</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.0292114152895949</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.07195604912007701</v>
+        <v>0.07322253017715197</v>
       </c>
       <c r="DC5">
-        <v>0.03025185187092047</v>
+        <v>0.0004395368869425281</v>
       </c>
       <c r="DD5">
-        <v>0.04620895539189587</v>
+        <v>0.02828819086197664</v>
       </c>
       <c r="DE5">
-        <v>0.01982561841987554</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.005428972737261839</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.03627589195041012</v>
+        <v>0.01095281127191622</v>
       </c>
       <c r="DH5">
-        <v>0.0001684440680557539</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>4.705209425961532E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.03277049661476213</v>
+        <v>0.004835125714519253</v>
       </c>
       <c r="DK5">
-        <v>0.002183627540016213</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.003132824347854601</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.01057911710307077</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.001385248006939031</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.005265978887532566</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.01086155603836283</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>5.578123066277991E-08</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.001883246784576688</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.00186715955633495</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.0004411252792022566</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.000154289985209803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:125">
@@ -2998,100 +2998,100 @@
         <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.204629620905071</v>
+        <v>0.3090278454203659</v>
       </c>
       <c r="CP6">
-        <v>0.1065229875709301</v>
+        <v>0.135416510965393</v>
       </c>
       <c r="CQ6">
-        <v>0.0779960638894089</v>
+        <v>0.08493473292520648</v>
       </c>
       <c r="CR6">
-        <v>0.003032625621900035</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.08709164726548557</v>
+        <v>0.1010304474951775</v>
       </c>
       <c r="CT6">
-        <v>0.002337541603286713</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.0001826448752803689</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.03890276088461729</v>
+        <v>0.01575449228033055</v>
       </c>
       <c r="CW6">
-        <v>0.001548994491077203</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.02607189204426064</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.04730923399267203</v>
+        <v>0.03063074442302168</v>
       </c>
       <c r="CZ6">
-        <v>0.0317491256285948</v>
+        <v>0.003095285447982642</v>
       </c>
       <c r="DA6">
-        <v>0.04530268438327253</v>
+        <v>0.02707991668080903</v>
       </c>
       <c r="DB6">
-        <v>0.07420080023627429</v>
+        <v>0.07821856333466505</v>
       </c>
       <c r="DC6">
-        <v>0.002394022669011116</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.1483936141749665</v>
+        <v>0.209511555430271</v>
       </c>
       <c r="DE6">
-        <v>0.02433354090589404</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.03299494210283503</v>
+        <v>0.005299905596777094</v>
       </c>
       <c r="DG6">
-        <v>0.0008449647251586037</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>6.975573421540861E-06</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.00261048371628067</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.0003746561678860494</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>1.469173306567218E-06</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.0007717283195859649</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.0007884362886553916</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.003513454124192494</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.009850447129519803</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.009745950254705309</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.01029541912489287</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.003389419045846826</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.0007048160989665559</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.002107037012743514</v>
+        <v>0</v>
       </c>
       <c r="DU6">
         <v>0</v>
@@ -3372,100 +3372,100 @@
         <v>0</v>
       </c>
       <c r="CN7">
-        <v>0.1892514190510882</v>
+        <v>0.2726617980889685</v>
       </c>
       <c r="CO7">
-        <v>0.00137954044082134</v>
+        <v>0</v>
       </c>
       <c r="CP7">
-        <v>0.1875136126435105</v>
+        <v>0.2696864185121707</v>
       </c>
       <c r="CQ7">
-        <v>0.005260724469900288</v>
+        <v>0</v>
       </c>
       <c r="CR7">
-        <v>0.01563046861184865</v>
+        <v>0</v>
       </c>
       <c r="CS7">
-        <v>0.06245092319889448</v>
+        <v>0.05556074238948595</v>
       </c>
       <c r="CT7">
-        <v>0.05354674794366221</v>
+        <v>0.04031548774712653</v>
       </c>
       <c r="CU7">
-        <v>7.064611346563042E-06</v>
+        <v>0</v>
       </c>
       <c r="CV7">
-        <v>0.0191828431294291</v>
+        <v>0</v>
       </c>
       <c r="CW7">
-        <v>0.000446092148142172</v>
+        <v>0</v>
       </c>
       <c r="CX7">
-        <v>0.02725569188535689</v>
+        <v>0</v>
       </c>
       <c r="CY7">
-        <v>0.0524770740896365</v>
+        <v>0.03848404914428531</v>
       </c>
       <c r="CZ7">
-        <v>0.04011381424306804</v>
+        <v>0.01731633409287293</v>
       </c>
       <c r="DA7">
-        <v>0.005349357127219504</v>
+        <v>0</v>
       </c>
       <c r="DB7">
-        <v>0.1119293395057684</v>
+        <v>0.1402750516070314</v>
       </c>
       <c r="DC7">
-        <v>0.05899661119498329</v>
+        <v>0.0496464533504377</v>
       </c>
       <c r="DD7">
-        <v>0.06121390279134962</v>
+        <v>0.0534427819304603</v>
       </c>
       <c r="DE7">
-        <v>0.06656864312316038</v>
+        <v>0.06261088313716076</v>
       </c>
       <c r="DF7">
-        <v>0.008220902866930059</v>
+        <v>0</v>
       </c>
       <c r="DG7">
-        <v>0.004265059060568289</v>
+        <v>0</v>
       </c>
       <c r="DH7">
-        <v>3.211814781664834E-05</v>
+        <v>0</v>
       </c>
       <c r="DI7">
-        <v>0.002122195028845911</v>
+        <v>0</v>
       </c>
       <c r="DJ7">
-        <v>2.848347767876454E-06</v>
+        <v>0</v>
       </c>
       <c r="DK7">
-        <v>0.003753039896869789</v>
+        <v>0</v>
       </c>
       <c r="DL7">
-        <v>0.001546793209572283</v>
+        <v>0</v>
       </c>
       <c r="DM7">
-        <v>0.000723229837509897</v>
+        <v>0</v>
       </c>
       <c r="DN7">
-        <v>0.0004372862676360832</v>
+        <v>0</v>
       </c>
       <c r="DO7">
-        <v>0.009730797444797845</v>
+        <v>0</v>
       </c>
       <c r="DP7">
-        <v>0.004936678571535626</v>
+        <v>0</v>
       </c>
       <c r="DQ7">
-        <v>0.004576091551651758</v>
+        <v>0</v>
       </c>
       <c r="DR7">
-        <v>0.001018426723669731</v>
+        <v>0</v>
       </c>
       <c r="DS7">
-        <v>6.066283564178972E-05</v>
+        <v>0</v>
       </c>
       <c r="DT7">
         <v>0</v>
@@ -3479,25 +3479,25 @@
         <v>131</v>
       </c>
       <c r="B8">
-        <v>0.1114107512938481</v>
+        <v>0.1379965635377423</v>
       </c>
       <c r="C8">
-        <v>0.1887832607847815</v>
+        <v>0.2683713471651691</v>
       </c>
       <c r="D8">
-        <v>0.1583882042526031</v>
+        <v>0.2171548499260492</v>
       </c>
       <c r="E8">
-        <v>0.1277650891981895</v>
+        <v>0.1655540678719941</v>
       </c>
       <c r="F8">
-        <v>0.006503992083922611</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002865189749617253</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.003404260144740056</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -3506,73 +3506,73 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.002415930663906239</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.05445775324689486</v>
+        <v>0.04202921226325782</v>
       </c>
       <c r="N8">
-        <v>0.04799498182944231</v>
+        <v>0.03113926658710486</v>
       </c>
       <c r="O8">
-        <v>0.02390573331013227</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.008223185733921883</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0.00702579950211321</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0.0005413314353652289</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0.04461406082119668</v>
+        <v>0.02544232270081281</v>
       </c>
       <c r="U8">
-        <v>0.04193386177483757</v>
+        <v>0.02092611438539749</v>
       </c>
       <c r="V8">
-        <v>0.005902990027384634</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.0008069170279418653</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.04785131306198027</v>
+        <v>0.03089718080502128</v>
       </c>
       <c r="Y8">
-        <v>0.05879708006790096</v>
+        <v>0.049341096020158</v>
       </c>
       <c r="Z8">
-        <v>0.005657363302468636</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.004255589747039342</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.0004029542939965949</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.0001782633819295092</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.03613090761309871</v>
+        <v>0.01114797873729326</v>
       </c>
       <c r="AG8">
-        <v>0.009783235650747407</v>
+        <v>0</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -3856,13 +3856,13 @@
         <v>132</v>
       </c>
       <c r="B9">
-        <v>0.09945898213138241</v>
+        <v>0.1315375139317404</v>
       </c>
       <c r="C9">
-        <v>0.05705999953120419</v>
+        <v>0.0512513669049196</v>
       </c>
       <c r="D9">
-        <v>0.02533695253581043</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3874,82 +3874,82 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0219749986714605</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.06882676047141334</v>
+        <v>0.0735327482244589</v>
       </c>
       <c r="J9">
-        <v>0.04486966554934605</v>
+        <v>0.02816791333239451</v>
       </c>
       <c r="K9">
-        <v>0.01477810212382225</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.006599716336239172</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.02419820199582046</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.140508396895676</v>
+        <v>0.2092681373339437</v>
       </c>
       <c r="O9">
-        <v>0.1386834092436972</v>
+        <v>0.2058123650968929</v>
       </c>
       <c r="P9">
-        <v>0.1394759343004769</v>
+        <v>0.2073130799567533</v>
       </c>
       <c r="Q9">
-        <v>0.06318821656325159</v>
+        <v>0.06285567680751514</v>
       </c>
       <c r="R9">
-        <v>0.002643507979673432</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.001777742491830552</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.0007258241021077313</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0.002467132729385448</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.001285062008165668</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0.01861272036068167</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.04148144798168239</v>
+        <v>0.02175202981081306</v>
       </c>
       <c r="Z9">
-        <v>0.03448791469078778</v>
+        <v>0.008509168600568587</v>
       </c>
       <c r="AA9">
-        <v>0.02077294581191791</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.004234141569412787</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>6.068729896860756E-05</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>7.155898744542288E-05</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.002304417320296153</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.01845725762236199</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>0.005658302695682046</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -4506,100 +4506,100 @@
         <v>0</v>
       </c>
       <c r="CO10">
-        <v>0.06313791292274543</v>
+        <v>0.06205965701959636</v>
       </c>
       <c r="CP10">
-        <v>0.2114003754824912</v>
+        <v>0.3397210051192542</v>
       </c>
       <c r="CQ10">
-        <v>0.2024722551902636</v>
+        <v>0.3230006979455025</v>
       </c>
       <c r="CR10">
-        <v>0.04255193909631413</v>
+        <v>0.02350688279808482</v>
       </c>
       <c r="CS10">
-        <v>0.0003263795427341466</v>
+        <v>0</v>
       </c>
       <c r="CT10">
-        <v>0.007233376723920487</v>
+        <v>0</v>
       </c>
       <c r="CU10">
-        <v>0.04252669017247628</v>
+        <v>0.02345959739549643</v>
       </c>
       <c r="CV10">
-        <v>0.009679082487076305</v>
+        <v>0</v>
       </c>
       <c r="CW10">
-        <v>0.0006629190410694133</v>
+        <v>0</v>
       </c>
       <c r="CX10">
-        <v>0.0674539072438184</v>
+        <v>0.07014251751502806</v>
       </c>
       <c r="CY10">
-        <v>0.02445286834823083</v>
+        <v>0</v>
       </c>
       <c r="CZ10">
-        <v>0.01921255206346161</v>
+        <v>0</v>
       </c>
       <c r="DA10">
-        <v>0.08033588068866306</v>
+        <v>0.09426747841966834</v>
       </c>
       <c r="DB10">
-        <v>0.001768906014330577</v>
+        <v>0</v>
       </c>
       <c r="DC10">
-        <v>0.04080272999229972</v>
+        <v>0.02023101816219887</v>
       </c>
       <c r="DD10">
-        <v>0.0003395744103539953</v>
+        <v>0</v>
       </c>
       <c r="DE10">
-        <v>0.00824057263239982</v>
+        <v>0</v>
       </c>
       <c r="DF10">
-        <v>0.02776742985599643</v>
+        <v>0</v>
       </c>
       <c r="DG10">
-        <v>0.0117901825887018</v>
+        <v>0</v>
       </c>
       <c r="DH10">
-        <v>1.839702018049925E-05</v>
+        <v>0</v>
       </c>
       <c r="DI10">
-        <v>0.02110928917911666</v>
+        <v>0</v>
       </c>
       <c r="DJ10">
-        <v>0.05328698571008419</v>
+        <v>0.04361114562517038</v>
       </c>
       <c r="DK10">
-        <v>0.0001688855225964309</v>
+        <v>0</v>
       </c>
       <c r="DL10">
-        <v>0.006313043205966085</v>
+        <v>0</v>
       </c>
       <c r="DM10">
-        <v>0.0003768447172348613</v>
+        <v>0</v>
       </c>
       <c r="DN10">
-        <v>0.01534342352680147</v>
+        <v>0</v>
       </c>
       <c r="DO10">
-        <v>0.02285117377682449</v>
+        <v>0</v>
       </c>
       <c r="DP10">
-        <v>0.01357426922869068</v>
+        <v>0</v>
       </c>
       <c r="DQ10">
-        <v>0.0005084686296222498</v>
+        <v>0</v>
       </c>
       <c r="DR10">
-        <v>0.001129770834089307</v>
+        <v>0</v>
       </c>
       <c r="DS10">
-        <v>0.0004870516060418026</v>
+        <v>0</v>
       </c>
       <c r="DT10">
-        <v>0.002676862545404309</v>
+        <v>0</v>
       </c>
       <c r="DU10">
         <v>0</v>
@@ -4613,28 +4613,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03623550308946289</v>
+        <v>0.0191773544652919</v>
       </c>
       <c r="D11">
-        <v>0.07121026233497611</v>
+        <v>0.1163582164510091</v>
       </c>
       <c r="E11">
-        <v>0.07292122774656362</v>
+        <v>0.121112304745331</v>
       </c>
       <c r="F11">
-        <v>0.06652642011306285</v>
+        <v>0.1033436929960972</v>
       </c>
       <c r="G11">
-        <v>0.05897005815697586</v>
+        <v>0.08234758654075917</v>
       </c>
       <c r="H11">
-        <v>0.03478042357900093</v>
+        <v>0.01513427070617812</v>
       </c>
       <c r="I11">
-        <v>0.04682444984215443</v>
+        <v>0.04859980068497351</v>
       </c>
       <c r="J11">
-        <v>0.02328700706253126</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -4646,37 +4646,37 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.01252522870570415</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.004343187536581549</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.0204416090518892</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.05340561166107173</v>
+        <v>0.06688621615220564</v>
       </c>
       <c r="R11">
-        <v>0.06131772373319357</v>
+        <v>0.0888708098387237</v>
       </c>
       <c r="S11">
-        <v>0.06111527260388845</v>
+        <v>0.08830827915430227</v>
       </c>
       <c r="T11">
-        <v>0.0708831555917466</v>
+        <v>0.1154493176921859</v>
       </c>
       <c r="U11">
-        <v>0.04340457180998067</v>
+        <v>0.03909732798116781</v>
       </c>
       <c r="V11">
-        <v>0.04043352289280755</v>
+        <v>0.0308419718042799</v>
       </c>
       <c r="W11">
-        <v>0.0231500964298812</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.006006260712052006</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -4685,28 +4685,28 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.00212271700595343</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.008753840599701156</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.0291469224379305</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.0466166107346036</v>
+        <v>0.04802229896482306</v>
       </c>
       <c r="AE11">
-        <v>0.03525414457928944</v>
+        <v>0.01645055182267158</v>
       </c>
       <c r="AF11">
-        <v>0.02907100410182668</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>0.02890193834039038</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.01235122954678</v>
+        <v>0</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -5653,100 +5653,100 @@
         <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.2777749950676404</v>
+        <v>0.3742569842391381</v>
       </c>
       <c r="CQ2">
-        <v>0.462333850837402</v>
+        <v>0.6074287504928597</v>
       </c>
       <c r="CR2">
-        <v>0.5458754994235619</v>
+        <v>0.6877081656674081</v>
       </c>
       <c r="CS2">
-        <v>0.547324557223368</v>
+        <v>0.6877081656674081</v>
       </c>
       <c r="CT2">
-        <v>0.6341175235117262</v>
+        <v>0.772908540562125</v>
       </c>
       <c r="CU2">
-        <v>0.6408911546899864</v>
+        <v>0.772908540562125</v>
       </c>
       <c r="CV2">
-        <v>0.6706544509395834</v>
+        <v>0.772908540562125</v>
       </c>
       <c r="CW2">
-        <v>0.6867834651411486</v>
+        <v>0.772908540562125</v>
       </c>
       <c r="CX2">
-        <v>0.695586700675899</v>
+        <v>0.772908540562125</v>
       </c>
       <c r="CY2">
-        <v>0.6964731410039562</v>
+        <v>0.772908540562125</v>
       </c>
       <c r="CZ2">
-        <v>0.6964826673162954</v>
+        <v>0.772908540562125</v>
       </c>
       <c r="DA2">
-        <v>0.7962933400442465</v>
+        <v>0.8778115760104089</v>
       </c>
       <c r="DB2">
-        <v>0.7963108744270245</v>
+        <v>0.8778115760104089</v>
       </c>
       <c r="DC2">
-        <v>0.907542142516362</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DD2">
-        <v>0.908738973427586</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DE2">
-        <v>0.9282093809120641</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DF2">
-        <v>0.9483906663088272</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DG2">
-        <v>0.9613285450213155</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DH2">
-        <v>0.9619005282369349</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DI2">
-        <v>0.9619406925839</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DJ2">
-        <v>0.9672198602889774</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DK2">
-        <v>0.9792059195302792</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DL2">
-        <v>0.9880795368564692</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DM2">
-        <v>0.9929797222305377</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DN2">
-        <v>0.9929856072757093</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DO2">
-        <v>0.9931446916795966</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DP2">
-        <v>0.9965130381751143</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DQ2">
-        <v>0.9965192480758961</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DR2">
-        <v>0.9973926255527377</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DS2">
-        <v>0.9993712422629606</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DT2">
-        <v>0.9994049877416387</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DU2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:125">
@@ -6027,97 +6027,97 @@
         <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.3174054926966229</v>
+        <v>0.4883356517227568</v>
       </c>
       <c r="CP3">
-        <v>0.3741590567345298</v>
+        <v>0.5337930958647465</v>
       </c>
       <c r="CQ3">
-        <v>0.5371010662799006</v>
+        <v>0.7596771674026545</v>
       </c>
       <c r="CR3">
-        <v>0.5379694142478564</v>
+        <v>0.7596771674026545</v>
       </c>
       <c r="CS3">
-        <v>0.5889975226652052</v>
+        <v>0.7954063907105828</v>
       </c>
       <c r="CT3">
-        <v>0.6106691729669961</v>
+        <v>0.7954063907105828</v>
       </c>
       <c r="CU3">
-        <v>0.6442627985207567</v>
+        <v>0.8015123821458116</v>
       </c>
       <c r="CV3">
-        <v>0.6459885526144828</v>
+        <v>0.8015123821458116</v>
       </c>
       <c r="CW3">
-        <v>0.6465105880694768</v>
+        <v>0.8015123821458116</v>
       </c>
       <c r="CX3">
-        <v>0.6802500388205897</v>
+        <v>0.8078661477001721</v>
       </c>
       <c r="CY3">
-        <v>0.6806723497851958</v>
+        <v>0.8078661477001721</v>
       </c>
       <c r="CZ3">
-        <v>0.7543772983827675</v>
+        <v>0.882125983017354</v>
       </c>
       <c r="DA3">
-        <v>0.8122963317044269</v>
+        <v>0.9295636962102383</v>
       </c>
       <c r="DB3">
-        <v>0.8679603262452301</v>
+        <v>0.9731698339437348</v>
       </c>
       <c r="DC3">
-        <v>0.8786370943292143</v>
+        <v>0.9731698339437348</v>
       </c>
       <c r="DD3">
-        <v>0.9244277437879005</v>
+        <v>1</v>
       </c>
       <c r="DE3">
-        <v>0.9296597866393567</v>
+        <v>1</v>
       </c>
       <c r="DF3">
-        <v>0.9492717809636899</v>
+        <v>1</v>
       </c>
       <c r="DG3">
-        <v>0.9493112385720485</v>
+        <v>1</v>
       </c>
       <c r="DH3">
-        <v>0.9493504491172257</v>
+        <v>1</v>
       </c>
       <c r="DI3">
-        <v>0.9612568297622616</v>
+        <v>1</v>
       </c>
       <c r="DJ3">
-        <v>0.9612714844517378</v>
+        <v>1</v>
       </c>
       <c r="DK3">
-        <v>0.9620086154494517</v>
+        <v>1</v>
       </c>
       <c r="DL3">
-        <v>0.9647717105235114</v>
+        <v>1</v>
       </c>
       <c r="DM3">
-        <v>0.9666471987537752</v>
+        <v>1</v>
       </c>
       <c r="DN3">
-        <v>0.9726184990440718</v>
+        <v>1</v>
       </c>
       <c r="DO3">
-        <v>0.9860487791140076</v>
+        <v>1</v>
       </c>
       <c r="DP3">
-        <v>0.9918267462125476</v>
+        <v>1</v>
       </c>
       <c r="DQ3">
-        <v>0.9946595523941493</v>
+        <v>1</v>
       </c>
       <c r="DR3">
-        <v>0.9947828048459303</v>
+        <v>1</v>
       </c>
       <c r="DS3">
-        <v>0.9974293462383639</v>
+        <v>1</v>
       </c>
       <c r="DT3">
         <v>1</v>
@@ -6404,97 +6404,97 @@
         <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.04933304196034644</v>
+        <v>0.03528593666564237</v>
       </c>
       <c r="CP4">
-        <v>0.1145313008250506</v>
+        <v>0.09952846691971626</v>
       </c>
       <c r="CQ4">
-        <v>0.3894684857827936</v>
+        <v>0.5465785490126835</v>
       </c>
       <c r="CR4">
-        <v>0.418751570054539</v>
+        <v>0.5465785490126835</v>
       </c>
       <c r="CS4">
-        <v>0.4398120029675445</v>
+        <v>0.5465785490126835</v>
       </c>
       <c r="CT4">
-        <v>0.4753151094328082</v>
+        <v>0.5566226107074683</v>
       </c>
       <c r="CU4">
-        <v>0.4758390707127811</v>
+        <v>0.5566226107074683</v>
       </c>
       <c r="CV4">
-        <v>0.5128210707331674</v>
+        <v>0.5693658929609379</v>
       </c>
       <c r="CW4">
-        <v>0.5155728666470363</v>
+        <v>0.5693658929609379</v>
       </c>
       <c r="CX4">
-        <v>0.5442249827854045</v>
+        <v>0.5693658929609379</v>
       </c>
       <c r="CY4">
-        <v>0.5550431106318663</v>
+        <v>0.5693658929609379</v>
       </c>
       <c r="CZ4">
-        <v>0.576177079499531</v>
+        <v>0.5693658929609379</v>
       </c>
       <c r="DA4">
-        <v>0.7476154067171105</v>
+        <v>0.8275137760788869</v>
       </c>
       <c r="DB4">
-        <v>0.7553833577919671</v>
+        <v>0.8275137760788869</v>
       </c>
       <c r="DC4">
-        <v>0.8192434287353507</v>
+        <v>0.8893138963730955</v>
       </c>
       <c r="DD4">
-        <v>0.9098879599014966</v>
+        <v>1</v>
       </c>
       <c r="DE4">
-        <v>0.9190175341793728</v>
+        <v>1</v>
       </c>
       <c r="DF4">
-        <v>0.9400630524046442</v>
+        <v>1</v>
       </c>
       <c r="DG4">
-        <v>0.9431478184371549</v>
+        <v>1</v>
       </c>
       <c r="DH4">
-        <v>0.9434045139397712</v>
+        <v>1</v>
       </c>
       <c r="DI4">
-        <v>0.9435432269270564</v>
+        <v>1</v>
       </c>
       <c r="DJ4">
-        <v>0.9451477590207055</v>
+        <v>1</v>
       </c>
       <c r="DK4">
-        <v>0.9451843978255753</v>
+        <v>1</v>
       </c>
       <c r="DL4">
-        <v>0.9468231133072639</v>
+        <v>1</v>
       </c>
       <c r="DM4">
-        <v>0.9478030540775054</v>
+        <v>1</v>
       </c>
       <c r="DN4">
-        <v>0.956309365421942</v>
+        <v>1</v>
       </c>
       <c r="DO4">
-        <v>0.9657399612393869</v>
+        <v>1</v>
       </c>
       <c r="DP4">
-        <v>0.9817777995219611</v>
+        <v>1</v>
       </c>
       <c r="DQ4">
-        <v>0.9943515744579842</v>
+        <v>1</v>
       </c>
       <c r="DR4">
-        <v>0.9964034739669291</v>
+        <v>1</v>
       </c>
       <c r="DS4">
-        <v>0.9965330624807094</v>
+        <v>1</v>
       </c>
       <c r="DT4">
         <v>1</v>
@@ -6784,97 +6784,97 @@
         <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.3668019669958067</v>
+        <v>0.5877934817335663</v>
       </c>
       <c r="CQ5">
-        <v>0.3820632934079118</v>
+        <v>0.5877934817335663</v>
       </c>
       <c r="CR5">
-        <v>0.5642777012057153</v>
+        <v>0.8534410892209588</v>
       </c>
       <c r="CS5">
-        <v>0.5643637119481432</v>
+        <v>0.8534410892209588</v>
       </c>
       <c r="CT5">
-        <v>0.6079283729114154</v>
+        <v>0.8771144049300577</v>
       </c>
       <c r="CU5">
-        <v>0.6324869040977955</v>
+        <v>0.8771144049300577</v>
       </c>
       <c r="CV5">
-        <v>0.6537987812059588</v>
+        <v>0.8771144049300577</v>
       </c>
       <c r="CW5">
-        <v>0.6568695358350597</v>
+        <v>0.8771144049300577</v>
       </c>
       <c r="CX5">
-        <v>0.6568735390413205</v>
+        <v>0.8771144049300577</v>
       </c>
       <c r="CY5">
-        <v>0.6898229669472338</v>
+        <v>0.8822618050874935</v>
       </c>
       <c r="CZ5">
-        <v>0.6901010231325564</v>
+        <v>0.8822618050874935</v>
       </c>
       <c r="DA5">
-        <v>0.7193124384221513</v>
+        <v>0.8822618050874935</v>
       </c>
       <c r="DB5">
-        <v>0.7912684875422283</v>
+        <v>0.9554843352646455</v>
       </c>
       <c r="DC5">
-        <v>0.8215203394131488</v>
+        <v>0.955923872151588</v>
       </c>
       <c r="DD5">
-        <v>0.8677292948050447</v>
+        <v>0.9842120630135647</v>
       </c>
       <c r="DE5">
-        <v>0.8875549132249202</v>
+        <v>0.9842120630135647</v>
       </c>
       <c r="DF5">
-        <v>0.892983885962182</v>
+        <v>0.9842120630135647</v>
       </c>
       <c r="DG5">
-        <v>0.9292597779125922</v>
+        <v>0.9951648742854808</v>
       </c>
       <c r="DH5">
-        <v>0.9294282219806479</v>
+        <v>0.9951648742854808</v>
       </c>
       <c r="DI5">
-        <v>0.9294752740749075</v>
+        <v>0.9951648742854808</v>
       </c>
       <c r="DJ5">
-        <v>0.9622457706896697</v>
+        <v>1</v>
       </c>
       <c r="DK5">
-        <v>0.9644293982296859</v>
+        <v>1</v>
       </c>
       <c r="DL5">
-        <v>0.9675622225775404</v>
+        <v>1</v>
       </c>
       <c r="DM5">
-        <v>0.9781413396806112</v>
+        <v>1</v>
       </c>
       <c r="DN5">
-        <v>0.9795265876875503</v>
+        <v>1</v>
       </c>
       <c r="DO5">
-        <v>0.9847925665750829</v>
+        <v>1</v>
       </c>
       <c r="DP5">
-        <v>0.9956541226134457</v>
+        <v>1</v>
       </c>
       <c r="DQ5">
-        <v>0.9956541783946763</v>
+        <v>1</v>
       </c>
       <c r="DR5">
-        <v>0.997537425179253</v>
+        <v>1</v>
       </c>
       <c r="DS5">
-        <v>0.999404584735588</v>
+        <v>1</v>
       </c>
       <c r="DT5">
-        <v>0.9998457100147903</v>
+        <v>1</v>
       </c>
       <c r="DU5">
         <v>1</v>
@@ -7158,103 +7158,103 @@
         <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.204629620905071</v>
+        <v>0.3090278454203659</v>
       </c>
       <c r="CP6">
-        <v>0.3111526084760011</v>
+        <v>0.4444443563857589</v>
       </c>
       <c r="CQ6">
-        <v>0.38914867236541</v>
+        <v>0.5293790893109653</v>
       </c>
       <c r="CR6">
-        <v>0.39218129798731</v>
+        <v>0.5293790893109653</v>
       </c>
       <c r="CS6">
-        <v>0.4792729452527956</v>
+        <v>0.6304095368061429</v>
       </c>
       <c r="CT6">
-        <v>0.4816104868560823</v>
+        <v>0.6304095368061429</v>
       </c>
       <c r="CU6">
-        <v>0.4817931317313626</v>
+        <v>0.6304095368061429</v>
       </c>
       <c r="CV6">
-        <v>0.5206958926159799</v>
+        <v>0.6461640290864734</v>
       </c>
       <c r="CW6">
-        <v>0.5222448871070571</v>
+        <v>0.6461640290864734</v>
       </c>
       <c r="CX6">
-        <v>0.5483167791513177</v>
+        <v>0.6461640290864734</v>
       </c>
       <c r="CY6">
-        <v>0.5956260131439898</v>
+        <v>0.6767947735094951</v>
       </c>
       <c r="CZ6">
-        <v>0.6273751387725846</v>
+        <v>0.6798900589574778</v>
       </c>
       <c r="DA6">
-        <v>0.6726778231558571</v>
+        <v>0.7069699756382868</v>
       </c>
       <c r="DB6">
-        <v>0.7468786233921314</v>
+        <v>0.7851885389729518</v>
       </c>
       <c r="DC6">
-        <v>0.7492726460611425</v>
+        <v>0.7851885389729518</v>
       </c>
       <c r="DD6">
-        <v>0.897666260236109</v>
+        <v>0.9947000944032228</v>
       </c>
       <c r="DE6">
-        <v>0.921999801142003</v>
+        <v>0.9947000944032228</v>
       </c>
       <c r="DF6">
-        <v>0.954994743244838</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG6">
-        <v>0.9558397079699966</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH6">
-        <v>0.9558466835434182</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI6">
-        <v>0.9584571672596989</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ6">
-        <v>0.9588318234275849</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK6">
-        <v>0.9588332926008915</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL6">
-        <v>0.9596050209204774</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM6">
-        <v>0.9603934572091328</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN6">
-        <v>0.9639069113333253</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO6">
-        <v>0.9737573584628451</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP6">
-        <v>0.9835033087175503</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ6">
-        <v>0.9937987278424432</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR6">
-        <v>0.9971881468882899</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS6">
-        <v>0.9978929629872565</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:125">
@@ -7532,106 +7532,106 @@
         <v>0</v>
       </c>
       <c r="CN7">
-        <v>0.1892514190510882</v>
+        <v>0.2726617980889685</v>
       </c>
       <c r="CO7">
-        <v>0.1906309594919096</v>
+        <v>0.2726617980889685</v>
       </c>
       <c r="CP7">
-        <v>0.3781445721354201</v>
+        <v>0.5423482166011391</v>
       </c>
       <c r="CQ7">
-        <v>0.3834052966053204</v>
+        <v>0.5423482166011391</v>
       </c>
       <c r="CR7">
-        <v>0.399035765217169</v>
+        <v>0.5423482166011391</v>
       </c>
       <c r="CS7">
-        <v>0.4614866884160634</v>
+        <v>0.597908958990625</v>
       </c>
       <c r="CT7">
-        <v>0.5150334363597256</v>
+        <v>0.6382244467377516</v>
       </c>
       <c r="CU7">
-        <v>0.5150405009710722</v>
+        <v>0.6382244467377516</v>
       </c>
       <c r="CV7">
-        <v>0.5342233441005013</v>
+        <v>0.6382244467377516</v>
       </c>
       <c r="CW7">
-        <v>0.5346694362486435</v>
+        <v>0.6382244467377516</v>
       </c>
       <c r="CX7">
-        <v>0.5619251281340004</v>
+        <v>0.6382244467377516</v>
       </c>
       <c r="CY7">
-        <v>0.614402202223637</v>
+        <v>0.6767084958820369</v>
       </c>
       <c r="CZ7">
-        <v>0.654516016466705</v>
+        <v>0.6940248299749098</v>
       </c>
       <c r="DA7">
-        <v>0.6598653735939245</v>
+        <v>0.6940248299749098</v>
       </c>
       <c r="DB7">
-        <v>0.7717947130996929</v>
+        <v>0.8342998815819411</v>
       </c>
       <c r="DC7">
-        <v>0.8307913242946763</v>
+        <v>0.8839463349323788</v>
       </c>
       <c r="DD7">
-        <v>0.8920052270860259</v>
+        <v>0.9373891168628391</v>
       </c>
       <c r="DE7">
-        <v>0.9585738702091863</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DF7">
-        <v>0.9667947730761164</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG7">
-        <v>0.9710598321366847</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH7">
-        <v>0.9710919502845013</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI7">
-        <v>0.9732141453133473</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ7">
-        <v>0.9732169936611151</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK7">
-        <v>0.976970033557985</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL7">
-        <v>0.9785168267675572</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM7">
-        <v>0.9792400566050672</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN7">
-        <v>0.9796773428727032</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO7">
-        <v>0.9894081403175011</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP7">
-        <v>0.9943448188890368</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ7">
-        <v>0.9989209104406885</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR7">
-        <v>0.9999393371643582</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:125">
@@ -7639,97 +7639,97 @@
         <v>131</v>
       </c>
       <c r="B8">
-        <v>0.1114107512938481</v>
+        <v>0.1379965635377423</v>
       </c>
       <c r="C8">
-        <v>0.3001940120786296</v>
+        <v>0.4063679107029113</v>
       </c>
       <c r="D8">
-        <v>0.4585822163312326</v>
+        <v>0.6235227606289605</v>
       </c>
       <c r="E8">
-        <v>0.5863473055294222</v>
+        <v>0.7890768285009546</v>
       </c>
       <c r="F8">
-        <v>0.5928512976133448</v>
+        <v>0.7890768285009546</v>
       </c>
       <c r="G8">
-        <v>0.595716487362962</v>
+        <v>0.7890768285009546</v>
       </c>
       <c r="H8">
-        <v>0.5991207475077021</v>
+        <v>0.7890768285009546</v>
       </c>
       <c r="I8">
-        <v>0.5991207475077021</v>
+        <v>0.7890768285009546</v>
       </c>
       <c r="J8">
-        <v>0.5991207475077021</v>
+        <v>0.7890768285009546</v>
       </c>
       <c r="K8">
-        <v>0.6015366781716083</v>
+        <v>0.7890768285009546</v>
       </c>
       <c r="L8">
-        <v>0.6015366781716083</v>
+        <v>0.7890768285009546</v>
       </c>
       <c r="M8">
-        <v>0.6559944314185031</v>
+        <v>0.8311060407642125</v>
       </c>
       <c r="N8">
-        <v>0.7039894132479454</v>
+        <v>0.8622453073513173</v>
       </c>
       <c r="O8">
-        <v>0.7278951465580776</v>
+        <v>0.8622453073513173</v>
       </c>
       <c r="P8">
-        <v>0.7361183322919995</v>
+        <v>0.8622453073513173</v>
       </c>
       <c r="Q8">
-        <v>0.7361183322919995</v>
+        <v>0.8622453073513173</v>
       </c>
       <c r="R8">
-        <v>0.7431441317941128</v>
+        <v>0.8622453073513173</v>
       </c>
       <c r="S8">
-        <v>0.743685463229478</v>
+        <v>0.8622453073513173</v>
       </c>
       <c r="T8">
-        <v>0.7882995240506747</v>
+        <v>0.8876876300521301</v>
       </c>
       <c r="U8">
-        <v>0.8302333858255123</v>
+        <v>0.9086137444375276</v>
       </c>
       <c r="V8">
-        <v>0.8361363758528969</v>
+        <v>0.9086137444375276</v>
       </c>
       <c r="W8">
-        <v>0.8369432928808388</v>
+        <v>0.9086137444375276</v>
       </c>
       <c r="X8">
-        <v>0.8847946059428191</v>
+        <v>0.9395109252425489</v>
       </c>
       <c r="Y8">
-        <v>0.9435916860107201</v>
+        <v>0.9888520212627069</v>
       </c>
       <c r="Z8">
-        <v>0.9492490493131888</v>
+        <v>0.9888520212627069</v>
       </c>
       <c r="AA8">
-        <v>0.9492490493131888</v>
+        <v>0.9888520212627069</v>
       </c>
       <c r="AB8">
-        <v>0.9535046390602281</v>
+        <v>0.9888520212627069</v>
       </c>
       <c r="AC8">
-        <v>0.9539075933542247</v>
+        <v>0.9888520212627069</v>
       </c>
       <c r="AD8">
-        <v>0.9540858567361542</v>
+        <v>0.9888520212627069</v>
       </c>
       <c r="AE8">
-        <v>0.9540858567361542</v>
+        <v>0.9888520212627069</v>
       </c>
       <c r="AF8">
-        <v>0.9902167643492529</v>
+        <v>1</v>
       </c>
       <c r="AG8">
         <v>1</v>
@@ -8016,97 +8016,97 @@
         <v>132</v>
       </c>
       <c r="B9">
-        <v>0.09945898213138241</v>
+        <v>0.1315375139317404</v>
       </c>
       <c r="C9">
-        <v>0.1565189816625866</v>
+        <v>0.18278888083666</v>
       </c>
       <c r="D9">
-        <v>0.181855934198397</v>
+        <v>0.18278888083666</v>
       </c>
       <c r="E9">
-        <v>0.181855934198397</v>
+        <v>0.18278888083666</v>
       </c>
       <c r="F9">
-        <v>0.181855934198397</v>
+        <v>0.18278888083666</v>
       </c>
       <c r="G9">
-        <v>0.181855934198397</v>
+        <v>0.18278888083666</v>
       </c>
       <c r="H9">
-        <v>0.2038309328698575</v>
+        <v>0.18278888083666</v>
       </c>
       <c r="I9">
-        <v>0.2726576933412709</v>
+        <v>0.2563216290611189</v>
       </c>
       <c r="J9">
-        <v>0.317527358890617</v>
+        <v>0.2844895423935134</v>
       </c>
       <c r="K9">
-        <v>0.3323054610144392</v>
+        <v>0.2844895423935134</v>
       </c>
       <c r="L9">
-        <v>0.3389051773506784</v>
+        <v>0.2844895423935134</v>
       </c>
       <c r="M9">
-        <v>0.3631033793464988</v>
+        <v>0.2844895423935134</v>
       </c>
       <c r="N9">
-        <v>0.5036117762421748</v>
+        <v>0.4937576797274571</v>
       </c>
       <c r="O9">
-        <v>0.6422951854858721</v>
+        <v>0.6995700448243499</v>
       </c>
       <c r="P9">
-        <v>0.7817711197863489</v>
+        <v>0.9068831247811032</v>
       </c>
       <c r="Q9">
-        <v>0.8449593363496005</v>
+        <v>0.9697388015886184</v>
       </c>
       <c r="R9">
-        <v>0.8476028443292739</v>
+        <v>0.9697388015886184</v>
       </c>
       <c r="S9">
-        <v>0.8476028443292739</v>
+        <v>0.9697388015886184</v>
       </c>
       <c r="T9">
-        <v>0.8493805868211045</v>
+        <v>0.9697388015886184</v>
       </c>
       <c r="U9">
-        <v>0.8501064109232123</v>
+        <v>0.9697388015886184</v>
       </c>
       <c r="V9">
-        <v>0.8525735436525977</v>
+        <v>0.9697388015886184</v>
       </c>
       <c r="W9">
-        <v>0.8538586056607634</v>
+        <v>0.9697388015886184</v>
       </c>
       <c r="X9">
-        <v>0.8724713260214451</v>
+        <v>0.9697388015886184</v>
       </c>
       <c r="Y9">
-        <v>0.9139527740031275</v>
+        <v>0.9914908313994314</v>
       </c>
       <c r="Z9">
-        <v>0.9484406886939153</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.9692136345058332</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0.973447776075246</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.9735084633742146</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.97358002236166</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.9758844396819562</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.9943416973043181</v>
+        <v>1</v>
       </c>
       <c r="AG9">
         <v>1</v>
@@ -8666,97 +8666,97 @@
         <v>0</v>
       </c>
       <c r="CO10">
-        <v>0.06313791292274543</v>
+        <v>0.06205965701959636</v>
       </c>
       <c r="CP10">
-        <v>0.2745382884052366</v>
+        <v>0.4017806621388506</v>
       </c>
       <c r="CQ10">
-        <v>0.4770105435955002</v>
+        <v>0.7247813600843531</v>
       </c>
       <c r="CR10">
-        <v>0.5195624826918144</v>
+        <v>0.7482882428824379</v>
       </c>
       <c r="CS10">
-        <v>0.5198888622345486</v>
+        <v>0.7482882428824379</v>
       </c>
       <c r="CT10">
-        <v>0.527122238958469</v>
+        <v>0.7482882428824379</v>
       </c>
       <c r="CU10">
-        <v>0.5696489291309452</v>
+        <v>0.7717478402779343</v>
       </c>
       <c r="CV10">
-        <v>0.5793280116180215</v>
+        <v>0.7717478402779343</v>
       </c>
       <c r="CW10">
-        <v>0.5799909306590909</v>
+        <v>0.7717478402779343</v>
       </c>
       <c r="CX10">
-        <v>0.6474448379029093</v>
+        <v>0.8418903577929624</v>
       </c>
       <c r="CY10">
-        <v>0.6718977062511401</v>
+        <v>0.8418903577929624</v>
       </c>
       <c r="CZ10">
-        <v>0.6911102583146017</v>
+        <v>0.8418903577929624</v>
       </c>
       <c r="DA10">
-        <v>0.7714461390032648</v>
+        <v>0.9361578362126307</v>
       </c>
       <c r="DB10">
-        <v>0.7732150450175953</v>
+        <v>0.9361578362126307</v>
       </c>
       <c r="DC10">
-        <v>0.814017775009895</v>
+        <v>0.9563888543748296</v>
       </c>
       <c r="DD10">
-        <v>0.8143573494202491</v>
+        <v>0.9563888543748296</v>
       </c>
       <c r="DE10">
-        <v>0.8225979220526489</v>
+        <v>0.9563888543748296</v>
       </c>
       <c r="DF10">
-        <v>0.8503653519086454</v>
+        <v>0.9563888543748296</v>
       </c>
       <c r="DG10">
-        <v>0.8621555344973472</v>
+        <v>0.9563888543748296</v>
       </c>
       <c r="DH10">
-        <v>0.8621739315175276</v>
+        <v>0.9563888543748296</v>
       </c>
       <c r="DI10">
-        <v>0.8832832206966443</v>
+        <v>0.9563888543748296</v>
       </c>
       <c r="DJ10">
-        <v>0.9365702064067285</v>
+        <v>1</v>
       </c>
       <c r="DK10">
-        <v>0.9367390919293249</v>
+        <v>1</v>
       </c>
       <c r="DL10">
-        <v>0.943052135135291</v>
+        <v>1</v>
       </c>
       <c r="DM10">
-        <v>0.9434289798525258</v>
+        <v>1</v>
       </c>
       <c r="DN10">
-        <v>0.9587724033793273</v>
+        <v>1</v>
       </c>
       <c r="DO10">
-        <v>0.9816235771561518</v>
+        <v>1</v>
       </c>
       <c r="DP10">
-        <v>0.9951978463848424</v>
+        <v>1</v>
       </c>
       <c r="DQ10">
-        <v>0.9957063150144647</v>
+        <v>1</v>
       </c>
       <c r="DR10">
-        <v>0.996836085848554</v>
+        <v>1</v>
       </c>
       <c r="DS10">
-        <v>0.9973231374545958</v>
+        <v>1</v>
       </c>
       <c r="DT10">
         <v>1</v>
@@ -8773,373 +8773,373 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03623550308946289</v>
+        <v>0.0191773544652919</v>
       </c>
       <c r="D11">
-        <v>0.107445765424439</v>
+        <v>0.135535570916301</v>
       </c>
       <c r="E11">
-        <v>0.1803669931710026</v>
+        <v>0.2566478756616319</v>
       </c>
       <c r="F11">
-        <v>0.2468934132840655</v>
+        <v>0.3599915686577292</v>
       </c>
       <c r="G11">
-        <v>0.3058634714410414</v>
+        <v>0.4423391551984884</v>
       </c>
       <c r="H11">
-        <v>0.3406438950200423</v>
+        <v>0.4574734259046665</v>
       </c>
       <c r="I11">
-        <v>0.3874683448621967</v>
+        <v>0.50607322658964</v>
       </c>
       <c r="J11">
-        <v>0.410755351924728</v>
+        <v>0.50607322658964</v>
       </c>
       <c r="K11">
-        <v>0.410755351924728</v>
+        <v>0.50607322658964</v>
       </c>
       <c r="L11">
-        <v>0.410755351924728</v>
+        <v>0.50607322658964</v>
       </c>
       <c r="M11">
-        <v>0.410755351924728</v>
+        <v>0.50607322658964</v>
       </c>
       <c r="N11">
-        <v>0.4232805806304322</v>
+        <v>0.50607322658964</v>
       </c>
       <c r="O11">
-        <v>0.4276237681670137</v>
+        <v>0.50607322658964</v>
       </c>
       <c r="P11">
-        <v>0.4480653772189029</v>
+        <v>0.50607322658964</v>
       </c>
       <c r="Q11">
-        <v>0.5014709888799747</v>
+        <v>0.5729594427418456</v>
       </c>
       <c r="R11">
-        <v>0.5627887126131682</v>
+        <v>0.6618302525805693</v>
       </c>
       <c r="S11">
-        <v>0.6239039852170567</v>
+        <v>0.7501385317348715</v>
       </c>
       <c r="T11">
-        <v>0.6947871408088033</v>
+        <v>0.8655878494270575</v>
       </c>
       <c r="U11">
-        <v>0.738191712618784</v>
+        <v>0.9046851774082253</v>
       </c>
       <c r="V11">
-        <v>0.7786252355115916</v>
+        <v>0.9355271492125052</v>
       </c>
       <c r="W11">
-        <v>0.8017753319414728</v>
+        <v>0.9355271492125052</v>
       </c>
       <c r="X11">
-        <v>0.8077815926535248</v>
+        <v>0.9355271492125052</v>
       </c>
       <c r="Y11">
-        <v>0.8077815926535248</v>
+        <v>0.9355271492125052</v>
       </c>
       <c r="Z11">
-        <v>0.8077815926535248</v>
+        <v>0.9355271492125052</v>
       </c>
       <c r="AA11">
-        <v>0.8099043096594782</v>
+        <v>0.9355271492125052</v>
       </c>
       <c r="AB11">
-        <v>0.8186581502591794</v>
+        <v>0.9355271492125052</v>
       </c>
       <c r="AC11">
-        <v>0.8478050726971099</v>
+        <v>0.9355271492125052</v>
       </c>
       <c r="AD11">
-        <v>0.8944216834317136</v>
+        <v>0.9835494481773283</v>
       </c>
       <c r="AE11">
-        <v>0.929675828011003</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF11">
-        <v>0.9587468321128297</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG11">
-        <v>0.9876487704532201</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CD11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CE11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CF11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CG11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CH11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CI11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CJ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CK11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CL11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CM11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CN11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CO11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CP11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CQ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CR11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CS11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CT11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CU11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CV11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CW11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CX11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CY11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CZ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DA11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DB11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DC11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DD11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DE11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DF11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9201,34 +9201,34 @@
         <v>125</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>91</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.6074287504928597</v>
       </c>
       <c r="F2">
-        <v>0.5458754994235619</v>
+        <v>94</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2">
         <v>16</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K2" t="s">
-        <v>148</v>
       </c>
       <c r="L2" t="s">
         <v>149</v>
@@ -9242,34 +9242,34 @@
         <v>126</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>90</v>
       </c>
       <c r="D3">
-        <v>94</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5337930958647465</v>
       </c>
       <c r="F3">
-        <v>0.5371010662799006</v>
+        <v>93</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3">
         <v>16</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>147</v>
-      </c>
-      <c r="K3" t="s">
-        <v>148</v>
       </c>
       <c r="L3" t="s">
         <v>149</v>
@@ -9283,34 +9283,34 @@
         <v>127</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>91</v>
       </c>
       <c r="D4">
-        <v>99</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5465785490126835</v>
       </c>
       <c r="F4">
-        <v>0.5128210707331674</v>
+        <v>94</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>700</v>
       </c>
       <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4">
         <v>16</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>147</v>
-      </c>
-      <c r="K4" t="s">
-        <v>148</v>
       </c>
       <c r="L4" t="s">
         <v>149</v>
@@ -9324,34 +9324,34 @@
         <v>128</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>91</v>
       </c>
       <c r="D5">
-        <v>95</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5877934817335663</v>
       </c>
       <c r="F5">
-        <v>0.5642777012057153</v>
+        <v>93</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>700</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5">
         <v>16</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>147</v>
-      </c>
-      <c r="K5" t="s">
-        <v>148</v>
       </c>
       <c r="L5" t="s">
         <v>149</v>
@@ -9365,34 +9365,34 @@
         <v>129</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>90</v>
       </c>
       <c r="D6">
-        <v>99</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.5293790893109653</v>
       </c>
       <c r="F6">
-        <v>0.5206958926159799</v>
+        <v>94</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6">
         <v>16</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>147</v>
-      </c>
-      <c r="K6" t="s">
-        <v>148</v>
       </c>
       <c r="L6" t="s">
         <v>149</v>
@@ -9406,34 +9406,34 @@
         <v>130</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>89</v>
       </c>
       <c r="D7">
-        <v>97</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.5423482166011391</v>
       </c>
       <c r="F7">
-        <v>0.5150334363597256</v>
+        <v>93</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>700</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7">
         <v>16</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K7" t="s">
-        <v>148</v>
       </c>
       <c r="L7" t="s">
         <v>149</v>
@@ -9447,34 +9447,34 @@
         <v>131</v>
       </c>
       <c r="B8">
+        <v>0.1379965635377423</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
       <c r="E8">
-        <v>0.1114107512938481</v>
+        <v>0.6235227606289605</v>
       </c>
       <c r="F8">
-        <v>0.5863473055294222</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8">
         <v>16</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>147</v>
-      </c>
-      <c r="K8" t="s">
-        <v>148</v>
       </c>
       <c r="L8" t="s">
         <v>149</v>
@@ -9488,34 +9488,34 @@
         <v>132</v>
       </c>
       <c r="B9">
+        <v>0.18278888083666</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>13</v>
-      </c>
       <c r="E9">
-        <v>0.181855934198397</v>
+        <v>0.6995700448243499</v>
       </c>
       <c r="F9">
-        <v>0.5036117762421748</v>
+        <v>14</v>
       </c>
       <c r="G9">
+        <v>700</v>
+      </c>
+      <c r="H9">
         <v>8</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>147</v>
+      </c>
+      <c r="J9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9">
         <v>16</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>147</v>
-      </c>
-      <c r="K9" t="s">
-        <v>148</v>
       </c>
       <c r="L9" t="s">
         <v>149</v>
@@ -9529,34 +9529,34 @@
         <v>133</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>90</v>
       </c>
       <c r="D10">
-        <v>95</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7247813600843531</v>
       </c>
       <c r="F10">
-        <v>0.5195624826918144</v>
+        <v>94</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>700</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10">
         <v>16</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>147</v>
-      </c>
-      <c r="K10" t="s">
-        <v>148</v>
       </c>
       <c r="L10" t="s">
         <v>149</v>
@@ -9570,34 +9570,34 @@
         <v>134</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.50607322658964</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>700</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11">
         <v>16</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.5014709888799747</v>
-      </c>
-      <c r="G11">
-        <v>15</v>
-      </c>
-      <c r="H11">
-        <v>16</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>147</v>
-      </c>
-      <c r="K11" t="s">
-        <v>148</v>
       </c>
       <c r="L11" t="s">
         <v>149</v>
@@ -9665,34 +9665,34 @@
         <v>125</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>91</v>
       </c>
       <c r="D2">
-        <v>104</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.772908540562125</v>
       </c>
       <c r="F2">
-        <v>0.7962933400442465</v>
+        <v>97</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2">
         <v>16</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K2" t="s">
-        <v>148</v>
       </c>
       <c r="L2" t="s">
         <v>149</v>
@@ -9706,34 +9706,34 @@
         <v>126</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>90</v>
       </c>
       <c r="D3">
-        <v>103</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7596771674026545</v>
       </c>
       <c r="F3">
-        <v>0.7543772983827675</v>
+        <v>94</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3">
         <v>16</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>147</v>
-      </c>
-      <c r="K3" t="s">
-        <v>148</v>
       </c>
       <c r="L3" t="s">
         <v>149</v>
@@ -9747,34 +9747,34 @@
         <v>127</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>91</v>
       </c>
       <c r="D4">
+        <v>0.7</v>
+      </c>
+      <c r="E4">
+        <v>0.8275137760788869</v>
+      </c>
+      <c r="F4">
         <v>104</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.7476154067171105</v>
-      </c>
       <c r="G4">
+        <v>700</v>
+      </c>
+      <c r="H4">
         <v>13</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4">
         <v>16</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>147</v>
-      </c>
-      <c r="K4" t="s">
-        <v>148</v>
       </c>
       <c r="L4" t="s">
         <v>149</v>
@@ -9788,34 +9788,34 @@
         <v>128</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>91</v>
       </c>
       <c r="D5">
-        <v>104</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8534410892209588</v>
       </c>
       <c r="F5">
-        <v>0.7193124384221513</v>
+        <v>95</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>700</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5">
         <v>16</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>147</v>
-      </c>
-      <c r="K5" t="s">
-        <v>148</v>
       </c>
       <c r="L5" t="s">
         <v>149</v>
@@ -9829,34 +9829,34 @@
         <v>129</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>90</v>
       </c>
       <c r="D6">
-        <v>105</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7069699756382868</v>
       </c>
       <c r="F6">
-        <v>0.7468786233921314</v>
+        <v>104</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6">
         <v>16</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>147</v>
-      </c>
-      <c r="K6" t="s">
-        <v>148</v>
       </c>
       <c r="L6" t="s">
         <v>149</v>
@@ -9870,34 +9870,34 @@
         <v>130</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>89</v>
       </c>
       <c r="D7">
+        <v>0.7</v>
+      </c>
+      <c r="E7">
+        <v>0.8342998815819411</v>
+      </c>
+      <c r="F7">
         <v>105</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.7717947130996929</v>
-      </c>
       <c r="G7">
-        <v>16</v>
+        <v>700</v>
       </c>
       <c r="H7">
         <v>16</v>
       </c>
-      <c r="I7">
-        <v>700</v>
+      <c r="I7" t="s">
+        <v>147</v>
       </c>
       <c r="J7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K7" t="s">
         <v>148</v>
+      </c>
+      <c r="K7">
+        <v>16</v>
       </c>
       <c r="L7" t="s">
         <v>149</v>
@@ -9911,34 +9911,34 @@
         <v>131</v>
       </c>
       <c r="B8">
+        <v>0.1379965635377423</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>13</v>
-      </c>
       <c r="E8">
-        <v>0.1114107512938481</v>
+        <v>0.7890768285009546</v>
       </c>
       <c r="F8">
-        <v>0.7039894132479454</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8">
         <v>16</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>147</v>
-      </c>
-      <c r="K8" t="s">
-        <v>148</v>
       </c>
       <c r="L8" t="s">
         <v>149</v>
@@ -9952,34 +9952,34 @@
         <v>132</v>
       </c>
       <c r="B9">
+        <v>0.18278888083666</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.9068831247811032</v>
+      </c>
+      <c r="F9">
         <v>15</v>
       </c>
-      <c r="E9">
-        <v>0.181855934198397</v>
-      </c>
-      <c r="F9">
-        <v>0.7817711197863489</v>
-      </c>
       <c r="G9">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>147</v>
+      </c>
+      <c r="J9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9">
         <v>16</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>147</v>
-      </c>
-      <c r="K9" t="s">
-        <v>148</v>
       </c>
       <c r="L9" t="s">
         <v>149</v>
@@ -9993,34 +9993,34 @@
         <v>133</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>90</v>
       </c>
       <c r="D10">
-        <v>104</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7247813600843531</v>
       </c>
       <c r="F10">
-        <v>0.7714461390032648</v>
+        <v>94</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>700</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10">
         <v>16</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>147</v>
-      </c>
-      <c r="K10" t="s">
-        <v>148</v>
       </c>
       <c r="L10" t="s">
         <v>149</v>
@@ -10034,34 +10034,34 @@
         <v>134</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.7</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7501385317348715</v>
       </c>
       <c r="F11">
-        <v>0.738191712618784</v>
+        <v>18</v>
       </c>
       <c r="G11">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11">
         <v>16</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>147</v>
-      </c>
-      <c r="K11" t="s">
-        <v>148</v>
       </c>
       <c r="L11" t="s">
         <v>149</v>
@@ -10129,34 +10129,34 @@
         <v>125</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>91</v>
       </c>
       <c r="D2">
-        <v>106</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8778115760104089</v>
       </c>
       <c r="F2">
-        <v>0.907542142516362</v>
+        <v>104</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2">
         <v>16</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K2" t="s">
-        <v>148</v>
       </c>
       <c r="L2" t="s">
         <v>149</v>
@@ -10170,34 +10170,34 @@
         <v>126</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>90</v>
       </c>
       <c r="D3">
-        <v>104</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8015123821458116</v>
       </c>
       <c r="F3">
-        <v>0.8122963317044269</v>
+        <v>98</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3">
         <v>16</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>147</v>
-      </c>
-      <c r="K3" t="s">
-        <v>148</v>
       </c>
       <c r="L3" t="s">
         <v>149</v>
@@ -10211,34 +10211,34 @@
         <v>127</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>91</v>
       </c>
       <c r="D4">
-        <v>106</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8275137760788869</v>
       </c>
       <c r="F4">
-        <v>0.8192434287353507</v>
+        <v>104</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>700</v>
       </c>
       <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4">
         <v>16</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>147</v>
-      </c>
-      <c r="K4" t="s">
-        <v>148</v>
       </c>
       <c r="L4" t="s">
         <v>149</v>
@@ -10252,34 +10252,34 @@
         <v>128</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>91</v>
       </c>
       <c r="D5">
-        <v>106</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8534410892209588</v>
       </c>
       <c r="F5">
-        <v>0.8215203394131488</v>
+        <v>95</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>700</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5">
         <v>16</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>147</v>
-      </c>
-      <c r="K5" t="s">
-        <v>148</v>
       </c>
       <c r="L5" t="s">
         <v>149</v>
@@ -10293,34 +10293,34 @@
         <v>129</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>90</v>
       </c>
       <c r="D6">
+        <v>0.8</v>
+      </c>
+      <c r="E6">
+        <v>0.9947000944032228</v>
+      </c>
+      <c r="F6">
         <v>107</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.897666260236109</v>
-      </c>
       <c r="G6">
+        <v>700</v>
+      </c>
+      <c r="H6">
         <v>17</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6">
         <v>16</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>147</v>
-      </c>
-      <c r="K6" t="s">
-        <v>148</v>
       </c>
       <c r="L6" t="s">
         <v>149</v>
@@ -10334,34 +10334,34 @@
         <v>130</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>89</v>
       </c>
       <c r="D7">
-        <v>106</v>
+        <v>0.8</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8342998815819411</v>
       </c>
       <c r="F7">
-        <v>0.8307913242946763</v>
+        <v>105</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>700</v>
       </c>
       <c r="H7">
         <v>16</v>
       </c>
-      <c r="I7">
-        <v>700</v>
+      <c r="I7" t="s">
+        <v>147</v>
       </c>
       <c r="J7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K7" t="s">
         <v>148</v>
+      </c>
+      <c r="K7">
+        <v>16</v>
       </c>
       <c r="L7" t="s">
         <v>149</v>
@@ -10375,34 +10375,34 @@
         <v>131</v>
       </c>
       <c r="B8">
+        <v>0.1379965635377423</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>0.1114107512938481</v>
+        <v>0.8311060407642125</v>
       </c>
       <c r="F8">
-        <v>0.8302333858255123</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8">
         <v>16</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>147</v>
-      </c>
-      <c r="K8" t="s">
-        <v>148</v>
       </c>
       <c r="L8" t="s">
         <v>149</v>
@@ -10416,34 +10416,34 @@
         <v>132</v>
       </c>
       <c r="B9">
+        <v>0.18278888083666</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.9068831247811032</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>700</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>147</v>
+      </c>
+      <c r="J9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9">
         <v>16</v>
-      </c>
-      <c r="E9">
-        <v>0.181855934198397</v>
-      </c>
-      <c r="F9">
-        <v>0.8449593363496005</v>
-      </c>
-      <c r="G9">
-        <v>11</v>
-      </c>
-      <c r="H9">
-        <v>16</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>147</v>
-      </c>
-      <c r="K9" t="s">
-        <v>148</v>
       </c>
       <c r="L9" t="s">
         <v>149</v>
@@ -10457,34 +10457,34 @@
         <v>133</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>90</v>
       </c>
       <c r="D10">
-        <v>106</v>
+        <v>0.8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8418903577929624</v>
       </c>
       <c r="F10">
-        <v>0.814017775009895</v>
+        <v>101</v>
       </c>
       <c r="G10">
+        <v>700</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10">
         <v>16</v>
-      </c>
-      <c r="H10">
-        <v>16</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>147</v>
-      </c>
-      <c r="K10" t="s">
-        <v>148</v>
       </c>
       <c r="L10" t="s">
         <v>149</v>
@@ -10498,34 +10498,34 @@
         <v>134</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8655878494270575</v>
       </c>
       <c r="F11">
-        <v>0.8017753319414728</v>
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>21</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11">
         <v>16</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>147</v>
-      </c>
-      <c r="K11" t="s">
-        <v>148</v>
       </c>
       <c r="L11" t="s">
         <v>149</v>
@@ -10593,34 +10593,34 @@
         <v>125</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>91</v>
       </c>
       <c r="D2">
+        <v>0.9</v>
+      </c>
+      <c r="E2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F2">
         <v>106</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.907542142516362</v>
-      </c>
       <c r="G2">
+        <v>700</v>
+      </c>
+      <c r="H2">
         <v>15</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2">
         <v>16</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K2" t="s">
-        <v>148</v>
       </c>
       <c r="L2" t="s">
         <v>149</v>
@@ -10634,34 +10634,34 @@
         <v>126</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>90</v>
       </c>
       <c r="D3">
-        <v>107</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9295636962102383</v>
       </c>
       <c r="F3">
-        <v>0.9244277437879005</v>
+        <v>104</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3">
         <v>16</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>147</v>
-      </c>
-      <c r="K3" t="s">
-        <v>148</v>
       </c>
       <c r="L3" t="s">
         <v>149</v>
@@ -10675,34 +10675,34 @@
         <v>127</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>91</v>
       </c>
       <c r="D4">
+        <v>0.9</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>107</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.9098879599014966</v>
-      </c>
       <c r="G4">
-        <v>16</v>
+        <v>700</v>
       </c>
       <c r="H4">
         <v>16</v>
       </c>
-      <c r="I4">
-        <v>700</v>
+      <c r="I4" t="s">
+        <v>147</v>
       </c>
       <c r="J4" t="s">
-        <v>147</v>
-      </c>
-      <c r="K4" t="s">
         <v>148</v>
+      </c>
+      <c r="K4">
+        <v>16</v>
       </c>
       <c r="L4" t="s">
         <v>149</v>
@@ -10716,34 +10716,34 @@
         <v>128</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>91</v>
       </c>
       <c r="D5">
-        <v>110</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9554843352646455</v>
       </c>
       <c r="F5">
-        <v>0.9292597779125922</v>
+        <v>105</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5">
         <v>16</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>147</v>
-      </c>
-      <c r="K5" t="s">
-        <v>148</v>
       </c>
       <c r="L5" t="s">
         <v>149</v>
@@ -10757,34 +10757,34 @@
         <v>129</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>90</v>
       </c>
       <c r="D6">
-        <v>108</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9947000944032228</v>
       </c>
       <c r="F6">
-        <v>0.921999801142003</v>
+        <v>107</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6">
         <v>16</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>147</v>
-      </c>
-      <c r="K6" t="s">
-        <v>148</v>
       </c>
       <c r="L6" t="s">
         <v>149</v>
@@ -10798,34 +10798,34 @@
         <v>130</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>89</v>
       </c>
       <c r="D7">
-        <v>108</v>
+        <v>0.9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9373891168628391</v>
       </c>
       <c r="F7">
-        <v>0.9585738702091863</v>
+        <v>107</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="H7">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7">
         <v>16</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K7" t="s">
-        <v>148</v>
       </c>
       <c r="L7" t="s">
         <v>149</v>
@@ -10839,34 +10839,34 @@
         <v>131</v>
       </c>
       <c r="B8">
+        <v>0.1379965635377423</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>24</v>
-      </c>
       <c r="E8">
-        <v>0.1114107512938481</v>
+        <v>0.9086137444375276</v>
       </c>
       <c r="F8">
-        <v>0.9435916860107201</v>
+        <v>20</v>
       </c>
       <c r="G8">
-        <v>23</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8">
         <v>16</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>147</v>
-      </c>
-      <c r="K8" t="s">
-        <v>148</v>
       </c>
       <c r="L8" t="s">
         <v>149</v>
@@ -10880,34 +10880,34 @@
         <v>132</v>
       </c>
       <c r="B9">
+        <v>0.18278888083666</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>0.181855934198397</v>
+        <v>0.9068831247811032</v>
       </c>
       <c r="F9">
-        <v>0.9139527740031275</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>147</v>
+      </c>
+      <c r="J9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9">
         <v>16</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>147</v>
-      </c>
-      <c r="K9" t="s">
-        <v>148</v>
       </c>
       <c r="L9" t="s">
         <v>149</v>
@@ -10921,34 +10921,34 @@
         <v>133</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>90</v>
       </c>
       <c r="D10">
-        <v>113</v>
+        <v>0.9</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9361578362126307</v>
       </c>
       <c r="F10">
-        <v>0.9365702064067285</v>
+        <v>104</v>
       </c>
       <c r="G10">
-        <v>23</v>
+        <v>700</v>
       </c>
       <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10">
         <v>16</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>147</v>
-      </c>
-      <c r="K10" t="s">
-        <v>148</v>
       </c>
       <c r="L10" t="s">
         <v>149</v>
@@ -10962,34 +10962,34 @@
         <v>134</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>30</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9046851774082253</v>
       </c>
       <c r="F11">
-        <v>0.929675828011003</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>29</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11">
         <v>16</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>147</v>
-      </c>
-      <c r="K11" t="s">
-        <v>148</v>
       </c>
       <c r="L11" t="s">
         <v>149</v>
